--- a/test_data/04-kreise.xlsx
+++ b/test_data/04-kreise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\B33\Elek_Infodienste\Nutzerdienst\Shop-Downloads\Gemeindeverzeichnis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/friedrichvolkers/GIT/geo-mapper/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D1A6D-F842-4858-91F3-A746D55BBAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B91CFB-E397-0D4E-BE18-DEFCC7B65C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="28275" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deckblatt" sheetId="1" r:id="rId1"/>
@@ -4018,7 +4018,7 @@
     <numFmt numFmtId="169" formatCode="\ ##\ ###\ ##0"/>
     <numFmt numFmtId="170" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4170,13 +4170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4184,16 +4184,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4204,77 +4204,62 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -4282,9 +4267,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4392,9 +4374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4432,9 +4414,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4467,26 +4449,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4519,26 +4484,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4712,235 +4660,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="51" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="51"/>
-    <col min="4" max="4" width="14.28515625" style="51" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="51"/>
-    <col min="7" max="7" width="15" style="51" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="53" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="53"/>
-    <col min="11" max="11" width="14.28515625" style="53" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="53"/>
-    <col min="14" max="14" width="15" style="53" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="51"/>
+    <col min="1" max="1" width="15.5" style="44" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="44"/>
+    <col min="4" max="4" width="14.33203125" style="44" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="44"/>
+    <col min="7" max="7" width="15" style="44" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="44" customWidth="1"/>
+    <col min="9" max="10" width="11.5" style="44"/>
+    <col min="11" max="11" width="14.33203125" style="44" customWidth="1"/>
+    <col min="12" max="13" width="11.5" style="44"/>
+    <col min="14" max="14" width="15" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="50"/>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.4">
-      <c r="A4" s="54" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="4" spans="1:11" ht="27">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="H6" s="57"/>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="H7" s="57"/>
-      <c r="K7" s="58"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="H8" s="57"/>
-      <c r="K8" s="58"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="59" t="s">
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A9" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A10" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A11" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="D22" s="61"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="D27" s="61"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="D28" s="61"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="D30" s="61"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="D31" s="61"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="59" t="s">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" s="40"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="40"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="40"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="A16" s="40"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="40"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="40"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="40"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="40"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="40"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="40"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="40"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="40"/>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="40"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="40"/>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="40"/>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="40"/>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="40"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="40"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="40"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="40"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="15">
+      <c r="A33" s="40"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="26">
+      <c r="A34" s="48" t="s">
         <v>1309</v>
       </c>
-      <c r="C34" s="62"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A35" s="40" t="s">
         <v>1311</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+    </row>
+    <row r="36" spans="1:11" ht="15">
+      <c r="A36" s="40"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="51" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="J42" s="66"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K43" s="67"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="J44" s="66"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="50"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="52"/>
+      <c r="J42" s="49"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="K43" s="53"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="52"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="44" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60" s="67"/>
+    <row r="60" spans="11:11">
+      <c r="K60" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4957,592 +4891,529 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M648"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="22.5703125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="27" customWidth="1"/>
-    <col min="9" max="254" width="11.42578125" style="4"/>
-    <col min="255" max="255" width="9.5703125" style="4" customWidth="1"/>
-    <col min="256" max="256" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="24" customWidth="1"/>
+    <col min="6" max="7" width="22.5" style="24" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="24" customWidth="1"/>
+    <col min="9" max="254" width="11.5" style="4"/>
+    <col min="255" max="255" width="9.5" style="4" customWidth="1"/>
+    <col min="256" max="256" width="14.33203125" style="4" customWidth="1"/>
     <col min="257" max="257" width="27" style="4" customWidth="1"/>
-    <col min="258" max="258" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="261" max="262" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="9.42578125" style="4" customWidth="1"/>
-    <col min="264" max="510" width="11.42578125" style="4"/>
-    <col min="511" max="511" width="9.5703125" style="4" customWidth="1"/>
-    <col min="512" max="512" width="14.28515625" style="4" customWidth="1"/>
+    <col min="260" max="262" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.5" style="4" customWidth="1"/>
+    <col min="264" max="510" width="11.5" style="4"/>
+    <col min="511" max="511" width="9.5" style="4" customWidth="1"/>
+    <col min="512" max="512" width="14.33203125" style="4" customWidth="1"/>
     <col min="513" max="513" width="27" style="4" customWidth="1"/>
-    <col min="514" max="514" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="515" max="515" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="517" max="518" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="9.42578125" style="4" customWidth="1"/>
-    <col min="520" max="766" width="11.42578125" style="4"/>
-    <col min="767" max="767" width="9.5703125" style="4" customWidth="1"/>
-    <col min="768" max="768" width="14.28515625" style="4" customWidth="1"/>
+    <col min="516" max="518" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="9.5" style="4" customWidth="1"/>
+    <col min="520" max="766" width="11.5" style="4"/>
+    <col min="767" max="767" width="9.5" style="4" customWidth="1"/>
+    <col min="768" max="768" width="14.33203125" style="4" customWidth="1"/>
     <col min="769" max="769" width="27" style="4" customWidth="1"/>
-    <col min="770" max="770" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="771" max="771" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="773" max="774" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="9.42578125" style="4" customWidth="1"/>
-    <col min="776" max="1022" width="11.42578125" style="4"/>
-    <col min="1023" max="1023" width="9.5703125" style="4" customWidth="1"/>
-    <col min="1024" max="1024" width="14.28515625" style="4" customWidth="1"/>
+    <col min="772" max="774" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="9.5" style="4" customWidth="1"/>
+    <col min="776" max="1022" width="11.5" style="4"/>
+    <col min="1023" max="1023" width="9.5" style="4" customWidth="1"/>
+    <col min="1024" max="1024" width="14.33203125" style="4" customWidth="1"/>
     <col min="1025" max="1025" width="27" style="4" customWidth="1"/>
-    <col min="1026" max="1026" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="1027" max="1027" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1030" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="9.42578125" style="4" customWidth="1"/>
-    <col min="1032" max="1278" width="11.42578125" style="4"/>
-    <col min="1279" max="1279" width="9.5703125" style="4" customWidth="1"/>
-    <col min="1280" max="1280" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1028" max="1030" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="9.5" style="4" customWidth="1"/>
+    <col min="1032" max="1278" width="11.5" style="4"/>
+    <col min="1279" max="1279" width="9.5" style="4" customWidth="1"/>
+    <col min="1280" max="1280" width="14.33203125" style="4" customWidth="1"/>
     <col min="1281" max="1281" width="27" style="4" customWidth="1"/>
-    <col min="1282" max="1282" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="1283" max="1283" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1286" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="9.42578125" style="4" customWidth="1"/>
-    <col min="1288" max="1534" width="11.42578125" style="4"/>
-    <col min="1535" max="1535" width="9.5703125" style="4" customWidth="1"/>
-    <col min="1536" max="1536" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1284" max="1286" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="9.5" style="4" customWidth="1"/>
+    <col min="1288" max="1534" width="11.5" style="4"/>
+    <col min="1535" max="1535" width="9.5" style="4" customWidth="1"/>
+    <col min="1536" max="1536" width="14.33203125" style="4" customWidth="1"/>
     <col min="1537" max="1537" width="27" style="4" customWidth="1"/>
-    <col min="1538" max="1538" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="1539" max="1539" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1542" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="9.42578125" style="4" customWidth="1"/>
-    <col min="1544" max="1790" width="11.42578125" style="4"/>
-    <col min="1791" max="1791" width="9.5703125" style="4" customWidth="1"/>
-    <col min="1792" max="1792" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1540" max="1542" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="9.5" style="4" customWidth="1"/>
+    <col min="1544" max="1790" width="11.5" style="4"/>
+    <col min="1791" max="1791" width="9.5" style="4" customWidth="1"/>
+    <col min="1792" max="1792" width="14.33203125" style="4" customWidth="1"/>
     <col min="1793" max="1793" width="27" style="4" customWidth="1"/>
-    <col min="1794" max="1794" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="1795" max="1795" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1798" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="9.42578125" style="4" customWidth="1"/>
-    <col min="1800" max="2046" width="11.42578125" style="4"/>
-    <col min="2047" max="2047" width="9.5703125" style="4" customWidth="1"/>
-    <col min="2048" max="2048" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1796" max="1798" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="9.5" style="4" customWidth="1"/>
+    <col min="1800" max="2046" width="11.5" style="4"/>
+    <col min="2047" max="2047" width="9.5" style="4" customWidth="1"/>
+    <col min="2048" max="2048" width="14.33203125" style="4" customWidth="1"/>
     <col min="2049" max="2049" width="27" style="4" customWidth="1"/>
-    <col min="2050" max="2050" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2051" max="2051" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2054" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2056" max="2302" width="11.42578125" style="4"/>
-    <col min="2303" max="2303" width="9.5703125" style="4" customWidth="1"/>
-    <col min="2304" max="2304" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2052" max="2054" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="9.5" style="4" customWidth="1"/>
+    <col min="2056" max="2302" width="11.5" style="4"/>
+    <col min="2303" max="2303" width="9.5" style="4" customWidth="1"/>
+    <col min="2304" max="2304" width="14.33203125" style="4" customWidth="1"/>
     <col min="2305" max="2305" width="27" style="4" customWidth="1"/>
-    <col min="2306" max="2306" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2307" max="2307" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2310" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2312" max="2558" width="11.42578125" style="4"/>
-    <col min="2559" max="2559" width="9.5703125" style="4" customWidth="1"/>
-    <col min="2560" max="2560" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2308" max="2310" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="9.5" style="4" customWidth="1"/>
+    <col min="2312" max="2558" width="11.5" style="4"/>
+    <col min="2559" max="2559" width="9.5" style="4" customWidth="1"/>
+    <col min="2560" max="2560" width="14.33203125" style="4" customWidth="1"/>
     <col min="2561" max="2561" width="27" style="4" customWidth="1"/>
-    <col min="2562" max="2562" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2563" max="2563" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2566" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2568" max="2814" width="11.42578125" style="4"/>
-    <col min="2815" max="2815" width="9.5703125" style="4" customWidth="1"/>
-    <col min="2816" max="2816" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2564" max="2566" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="9.5" style="4" customWidth="1"/>
+    <col min="2568" max="2814" width="11.5" style="4"/>
+    <col min="2815" max="2815" width="9.5" style="4" customWidth="1"/>
+    <col min="2816" max="2816" width="14.33203125" style="4" customWidth="1"/>
     <col min="2817" max="2817" width="27" style="4" customWidth="1"/>
-    <col min="2818" max="2818" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2819" max="2819" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2822" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="9.42578125" style="4" customWidth="1"/>
-    <col min="2824" max="3070" width="11.42578125" style="4"/>
-    <col min="3071" max="3071" width="9.5703125" style="4" customWidth="1"/>
-    <col min="3072" max="3072" width="14.28515625" style="4" customWidth="1"/>
+    <col min="2820" max="2822" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="9.5" style="4" customWidth="1"/>
+    <col min="2824" max="3070" width="11.5" style="4"/>
+    <col min="3071" max="3071" width="9.5" style="4" customWidth="1"/>
+    <col min="3072" max="3072" width="14.33203125" style="4" customWidth="1"/>
     <col min="3073" max="3073" width="27" style="4" customWidth="1"/>
-    <col min="3074" max="3074" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3075" max="3075" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3078" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="9.42578125" style="4" customWidth="1"/>
-    <col min="3080" max="3326" width="11.42578125" style="4"/>
-    <col min="3327" max="3327" width="9.5703125" style="4" customWidth="1"/>
-    <col min="3328" max="3328" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3076" max="3078" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="9.5" style="4" customWidth="1"/>
+    <col min="3080" max="3326" width="11.5" style="4"/>
+    <col min="3327" max="3327" width="9.5" style="4" customWidth="1"/>
+    <col min="3328" max="3328" width="14.33203125" style="4" customWidth="1"/>
     <col min="3329" max="3329" width="27" style="4" customWidth="1"/>
-    <col min="3330" max="3330" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3331" max="3331" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3334" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="9.42578125" style="4" customWidth="1"/>
-    <col min="3336" max="3582" width="11.42578125" style="4"/>
-    <col min="3583" max="3583" width="9.5703125" style="4" customWidth="1"/>
-    <col min="3584" max="3584" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3332" max="3334" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="9.5" style="4" customWidth="1"/>
+    <col min="3336" max="3582" width="11.5" style="4"/>
+    <col min="3583" max="3583" width="9.5" style="4" customWidth="1"/>
+    <col min="3584" max="3584" width="14.33203125" style="4" customWidth="1"/>
     <col min="3585" max="3585" width="27" style="4" customWidth="1"/>
-    <col min="3586" max="3586" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3587" max="3587" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3590" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="9.42578125" style="4" customWidth="1"/>
-    <col min="3592" max="3838" width="11.42578125" style="4"/>
-    <col min="3839" max="3839" width="9.5703125" style="4" customWidth="1"/>
-    <col min="3840" max="3840" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3588" max="3590" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="9.5" style="4" customWidth="1"/>
+    <col min="3592" max="3838" width="11.5" style="4"/>
+    <col min="3839" max="3839" width="9.5" style="4" customWidth="1"/>
+    <col min="3840" max="3840" width="14.33203125" style="4" customWidth="1"/>
     <col min="3841" max="3841" width="27" style="4" customWidth="1"/>
-    <col min="3842" max="3842" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3843" max="3843" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3846" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="9.42578125" style="4" customWidth="1"/>
-    <col min="3848" max="4094" width="11.42578125" style="4"/>
-    <col min="4095" max="4095" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4096" max="4096" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3844" max="3846" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="9.5" style="4" customWidth="1"/>
+    <col min="3848" max="4094" width="11.5" style="4"/>
+    <col min="4095" max="4095" width="9.5" style="4" customWidth="1"/>
+    <col min="4096" max="4096" width="14.33203125" style="4" customWidth="1"/>
     <col min="4097" max="4097" width="27" style="4" customWidth="1"/>
-    <col min="4098" max="4098" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4099" max="4099" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4102" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4104" max="4350" width="11.42578125" style="4"/>
-    <col min="4351" max="4351" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4352" max="4352" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4100" max="4102" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="9.5" style="4" customWidth="1"/>
+    <col min="4104" max="4350" width="11.5" style="4"/>
+    <col min="4351" max="4351" width="9.5" style="4" customWidth="1"/>
+    <col min="4352" max="4352" width="14.33203125" style="4" customWidth="1"/>
     <col min="4353" max="4353" width="27" style="4" customWidth="1"/>
-    <col min="4354" max="4354" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4355" max="4355" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4358" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4360" max="4606" width="11.42578125" style="4"/>
-    <col min="4607" max="4607" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4608" max="4608" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4356" max="4358" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="9.5" style="4" customWidth="1"/>
+    <col min="4360" max="4606" width="11.5" style="4"/>
+    <col min="4607" max="4607" width="9.5" style="4" customWidth="1"/>
+    <col min="4608" max="4608" width="14.33203125" style="4" customWidth="1"/>
     <col min="4609" max="4609" width="27" style="4" customWidth="1"/>
-    <col min="4610" max="4610" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4611" max="4611" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4614" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4616" max="4862" width="11.42578125" style="4"/>
-    <col min="4863" max="4863" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4864" max="4864" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4612" max="4614" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="9.5" style="4" customWidth="1"/>
+    <col min="4616" max="4862" width="11.5" style="4"/>
+    <col min="4863" max="4863" width="9.5" style="4" customWidth="1"/>
+    <col min="4864" max="4864" width="14.33203125" style="4" customWidth="1"/>
     <col min="4865" max="4865" width="27" style="4" customWidth="1"/>
-    <col min="4866" max="4866" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4867" max="4867" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4870" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4872" max="5118" width="11.42578125" style="4"/>
-    <col min="5119" max="5119" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5120" max="5120" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4868" max="4870" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="9.5" style="4" customWidth="1"/>
+    <col min="4872" max="5118" width="11.5" style="4"/>
+    <col min="5119" max="5119" width="9.5" style="4" customWidth="1"/>
+    <col min="5120" max="5120" width="14.33203125" style="4" customWidth="1"/>
     <col min="5121" max="5121" width="27" style="4" customWidth="1"/>
-    <col min="5122" max="5122" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5123" max="5123" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5126" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5128" max="5374" width="11.42578125" style="4"/>
-    <col min="5375" max="5375" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5376" max="5376" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5124" max="5126" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="9.5" style="4" customWidth="1"/>
+    <col min="5128" max="5374" width="11.5" style="4"/>
+    <col min="5375" max="5375" width="9.5" style="4" customWidth="1"/>
+    <col min="5376" max="5376" width="14.33203125" style="4" customWidth="1"/>
     <col min="5377" max="5377" width="27" style="4" customWidth="1"/>
-    <col min="5378" max="5378" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5379" max="5379" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5382" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5384" max="5630" width="11.42578125" style="4"/>
-    <col min="5631" max="5631" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5632" max="5632" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5380" max="5382" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="9.5" style="4" customWidth="1"/>
+    <col min="5384" max="5630" width="11.5" style="4"/>
+    <col min="5631" max="5631" width="9.5" style="4" customWidth="1"/>
+    <col min="5632" max="5632" width="14.33203125" style="4" customWidth="1"/>
     <col min="5633" max="5633" width="27" style="4" customWidth="1"/>
-    <col min="5634" max="5634" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5635" max="5635" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5638" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5640" max="5886" width="11.42578125" style="4"/>
-    <col min="5887" max="5887" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5888" max="5888" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5636" max="5638" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="9.5" style="4" customWidth="1"/>
+    <col min="5640" max="5886" width="11.5" style="4"/>
+    <col min="5887" max="5887" width="9.5" style="4" customWidth="1"/>
+    <col min="5888" max="5888" width="14.33203125" style="4" customWidth="1"/>
     <col min="5889" max="5889" width="27" style="4" customWidth="1"/>
-    <col min="5890" max="5890" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5891" max="5891" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5894" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5896" max="6142" width="11.42578125" style="4"/>
-    <col min="6143" max="6143" width="9.5703125" style="4" customWidth="1"/>
-    <col min="6144" max="6144" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5892" max="5894" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="9.5" style="4" customWidth="1"/>
+    <col min="5896" max="6142" width="11.5" style="4"/>
+    <col min="6143" max="6143" width="9.5" style="4" customWidth="1"/>
+    <col min="6144" max="6144" width="14.33203125" style="4" customWidth="1"/>
     <col min="6145" max="6145" width="27" style="4" customWidth="1"/>
-    <col min="6146" max="6146" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6147" max="6147" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6150" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="9.42578125" style="4" customWidth="1"/>
-    <col min="6152" max="6398" width="11.42578125" style="4"/>
-    <col min="6399" max="6399" width="9.5703125" style="4" customWidth="1"/>
-    <col min="6400" max="6400" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6148" max="6150" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="9.5" style="4" customWidth="1"/>
+    <col min="6152" max="6398" width="11.5" style="4"/>
+    <col min="6399" max="6399" width="9.5" style="4" customWidth="1"/>
+    <col min="6400" max="6400" width="14.33203125" style="4" customWidth="1"/>
     <col min="6401" max="6401" width="27" style="4" customWidth="1"/>
-    <col min="6402" max="6402" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6403" max="6403" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6406" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="9.42578125" style="4" customWidth="1"/>
-    <col min="6408" max="6654" width="11.42578125" style="4"/>
-    <col min="6655" max="6655" width="9.5703125" style="4" customWidth="1"/>
-    <col min="6656" max="6656" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6404" max="6406" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="9.5" style="4" customWidth="1"/>
+    <col min="6408" max="6654" width="11.5" style="4"/>
+    <col min="6655" max="6655" width="9.5" style="4" customWidth="1"/>
+    <col min="6656" max="6656" width="14.33203125" style="4" customWidth="1"/>
     <col min="6657" max="6657" width="27" style="4" customWidth="1"/>
-    <col min="6658" max="6658" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6659" max="6659" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6662" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="9.42578125" style="4" customWidth="1"/>
-    <col min="6664" max="6910" width="11.42578125" style="4"/>
-    <col min="6911" max="6911" width="9.5703125" style="4" customWidth="1"/>
-    <col min="6912" max="6912" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6660" max="6662" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="9.5" style="4" customWidth="1"/>
+    <col min="6664" max="6910" width="11.5" style="4"/>
+    <col min="6911" max="6911" width="9.5" style="4" customWidth="1"/>
+    <col min="6912" max="6912" width="14.33203125" style="4" customWidth="1"/>
     <col min="6913" max="6913" width="27" style="4" customWidth="1"/>
-    <col min="6914" max="6914" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6915" max="6915" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6918" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="9.42578125" style="4" customWidth="1"/>
-    <col min="6920" max="7166" width="11.42578125" style="4"/>
-    <col min="7167" max="7167" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7168" max="7168" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6916" max="6918" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="9.5" style="4" customWidth="1"/>
+    <col min="6920" max="7166" width="11.5" style="4"/>
+    <col min="7167" max="7167" width="9.5" style="4" customWidth="1"/>
+    <col min="7168" max="7168" width="14.33203125" style="4" customWidth="1"/>
     <col min="7169" max="7169" width="27" style="4" customWidth="1"/>
-    <col min="7170" max="7170" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7171" max="7171" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7174" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7176" max="7422" width="11.42578125" style="4"/>
-    <col min="7423" max="7423" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7424" max="7424" width="14.28515625" style="4" customWidth="1"/>
+    <col min="7172" max="7174" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="9.5" style="4" customWidth="1"/>
+    <col min="7176" max="7422" width="11.5" style="4"/>
+    <col min="7423" max="7423" width="9.5" style="4" customWidth="1"/>
+    <col min="7424" max="7424" width="14.33203125" style="4" customWidth="1"/>
     <col min="7425" max="7425" width="27" style="4" customWidth="1"/>
-    <col min="7426" max="7426" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7427" max="7427" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7430" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7432" max="7678" width="11.42578125" style="4"/>
-    <col min="7679" max="7679" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7680" max="7680" width="14.28515625" style="4" customWidth="1"/>
+    <col min="7428" max="7430" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="9.5" style="4" customWidth="1"/>
+    <col min="7432" max="7678" width="11.5" style="4"/>
+    <col min="7679" max="7679" width="9.5" style="4" customWidth="1"/>
+    <col min="7680" max="7680" width="14.33203125" style="4" customWidth="1"/>
     <col min="7681" max="7681" width="27" style="4" customWidth="1"/>
-    <col min="7682" max="7682" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7683" max="7683" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7686" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7688" max="7934" width="11.42578125" style="4"/>
-    <col min="7935" max="7935" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7936" max="7936" width="14.28515625" style="4" customWidth="1"/>
+    <col min="7684" max="7686" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="9.5" style="4" customWidth="1"/>
+    <col min="7688" max="7934" width="11.5" style="4"/>
+    <col min="7935" max="7935" width="9.5" style="4" customWidth="1"/>
+    <col min="7936" max="7936" width="14.33203125" style="4" customWidth="1"/>
     <col min="7937" max="7937" width="27" style="4" customWidth="1"/>
-    <col min="7938" max="7938" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7939" max="7939" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7942" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7944" max="8190" width="11.42578125" style="4"/>
-    <col min="8191" max="8191" width="9.5703125" style="4" customWidth="1"/>
-    <col min="8192" max="8192" width="14.28515625" style="4" customWidth="1"/>
+    <col min="7940" max="7942" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="9.5" style="4" customWidth="1"/>
+    <col min="7944" max="8190" width="11.5" style="4"/>
+    <col min="8191" max="8191" width="9.5" style="4" customWidth="1"/>
+    <col min="8192" max="8192" width="14.33203125" style="4" customWidth="1"/>
     <col min="8193" max="8193" width="27" style="4" customWidth="1"/>
-    <col min="8194" max="8194" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8195" max="8195" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8198" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8200" max="8446" width="11.42578125" style="4"/>
-    <col min="8447" max="8447" width="9.5703125" style="4" customWidth="1"/>
-    <col min="8448" max="8448" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8196" max="8198" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="9.5" style="4" customWidth="1"/>
+    <col min="8200" max="8446" width="11.5" style="4"/>
+    <col min="8447" max="8447" width="9.5" style="4" customWidth="1"/>
+    <col min="8448" max="8448" width="14.33203125" style="4" customWidth="1"/>
     <col min="8449" max="8449" width="27" style="4" customWidth="1"/>
-    <col min="8450" max="8450" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8451" max="8451" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8454" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8456" max="8702" width="11.42578125" style="4"/>
-    <col min="8703" max="8703" width="9.5703125" style="4" customWidth="1"/>
-    <col min="8704" max="8704" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8452" max="8454" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="9.5" style="4" customWidth="1"/>
+    <col min="8456" max="8702" width="11.5" style="4"/>
+    <col min="8703" max="8703" width="9.5" style="4" customWidth="1"/>
+    <col min="8704" max="8704" width="14.33203125" style="4" customWidth="1"/>
     <col min="8705" max="8705" width="27" style="4" customWidth="1"/>
-    <col min="8706" max="8706" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8707" max="8707" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8710" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8712" max="8958" width="11.42578125" style="4"/>
-    <col min="8959" max="8959" width="9.5703125" style="4" customWidth="1"/>
-    <col min="8960" max="8960" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8708" max="8710" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="9.5" style="4" customWidth="1"/>
+    <col min="8712" max="8958" width="11.5" style="4"/>
+    <col min="8959" max="8959" width="9.5" style="4" customWidth="1"/>
+    <col min="8960" max="8960" width="14.33203125" style="4" customWidth="1"/>
     <col min="8961" max="8961" width="27" style="4" customWidth="1"/>
-    <col min="8962" max="8962" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8963" max="8963" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8966" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="9.42578125" style="4" customWidth="1"/>
-    <col min="8968" max="9214" width="11.42578125" style="4"/>
-    <col min="9215" max="9215" width="9.5703125" style="4" customWidth="1"/>
-    <col min="9216" max="9216" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8964" max="8966" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="9.5" style="4" customWidth="1"/>
+    <col min="8968" max="9214" width="11.5" style="4"/>
+    <col min="9215" max="9215" width="9.5" style="4" customWidth="1"/>
+    <col min="9216" max="9216" width="14.33203125" style="4" customWidth="1"/>
     <col min="9217" max="9217" width="27" style="4" customWidth="1"/>
-    <col min="9218" max="9218" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9219" max="9219" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9222" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9224" max="9470" width="11.42578125" style="4"/>
-    <col min="9471" max="9471" width="9.5703125" style="4" customWidth="1"/>
-    <col min="9472" max="9472" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9220" max="9222" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="9.5" style="4" customWidth="1"/>
+    <col min="9224" max="9470" width="11.5" style="4"/>
+    <col min="9471" max="9471" width="9.5" style="4" customWidth="1"/>
+    <col min="9472" max="9472" width="14.33203125" style="4" customWidth="1"/>
     <col min="9473" max="9473" width="27" style="4" customWidth="1"/>
-    <col min="9474" max="9474" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9475" max="9475" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9478" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9480" max="9726" width="11.42578125" style="4"/>
-    <col min="9727" max="9727" width="9.5703125" style="4" customWidth="1"/>
-    <col min="9728" max="9728" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9476" max="9478" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="9.5" style="4" customWidth="1"/>
+    <col min="9480" max="9726" width="11.5" style="4"/>
+    <col min="9727" max="9727" width="9.5" style="4" customWidth="1"/>
+    <col min="9728" max="9728" width="14.33203125" style="4" customWidth="1"/>
     <col min="9729" max="9729" width="27" style="4" customWidth="1"/>
-    <col min="9730" max="9730" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9731" max="9731" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9734" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9736" max="9982" width="11.42578125" style="4"/>
-    <col min="9983" max="9983" width="9.5703125" style="4" customWidth="1"/>
-    <col min="9984" max="9984" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9732" max="9734" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="9.5" style="4" customWidth="1"/>
+    <col min="9736" max="9982" width="11.5" style="4"/>
+    <col min="9983" max="9983" width="9.5" style="4" customWidth="1"/>
+    <col min="9984" max="9984" width="14.33203125" style="4" customWidth="1"/>
     <col min="9985" max="9985" width="27" style="4" customWidth="1"/>
-    <col min="9986" max="9986" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9987" max="9987" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9990" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9992" max="10238" width="11.42578125" style="4"/>
-    <col min="10239" max="10239" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10240" max="10240" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9988" max="9990" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="9.5" style="4" customWidth="1"/>
+    <col min="9992" max="10238" width="11.5" style="4"/>
+    <col min="10239" max="10239" width="9.5" style="4" customWidth="1"/>
+    <col min="10240" max="10240" width="14.33203125" style="4" customWidth="1"/>
     <col min="10241" max="10241" width="27" style="4" customWidth="1"/>
-    <col min="10242" max="10242" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10243" max="10243" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10246" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="9.42578125" style="4" customWidth="1"/>
-    <col min="10248" max="10494" width="11.42578125" style="4"/>
-    <col min="10495" max="10495" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10496" max="10496" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10244" max="10246" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="9.5" style="4" customWidth="1"/>
+    <col min="10248" max="10494" width="11.5" style="4"/>
+    <col min="10495" max="10495" width="9.5" style="4" customWidth="1"/>
+    <col min="10496" max="10496" width="14.33203125" style="4" customWidth="1"/>
     <col min="10497" max="10497" width="27" style="4" customWidth="1"/>
-    <col min="10498" max="10498" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10499" max="10499" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10502" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="9.42578125" style="4" customWidth="1"/>
-    <col min="10504" max="10750" width="11.42578125" style="4"/>
-    <col min="10751" max="10751" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10752" max="10752" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10500" max="10502" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="9.5" style="4" customWidth="1"/>
+    <col min="10504" max="10750" width="11.5" style="4"/>
+    <col min="10751" max="10751" width="9.5" style="4" customWidth="1"/>
+    <col min="10752" max="10752" width="14.33203125" style="4" customWidth="1"/>
     <col min="10753" max="10753" width="27" style="4" customWidth="1"/>
-    <col min="10754" max="10754" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10755" max="10755" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10758" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="9.42578125" style="4" customWidth="1"/>
-    <col min="10760" max="11006" width="11.42578125" style="4"/>
-    <col min="11007" max="11007" width="9.5703125" style="4" customWidth="1"/>
-    <col min="11008" max="11008" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10756" max="10758" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="9.5" style="4" customWidth="1"/>
+    <col min="10760" max="11006" width="11.5" style="4"/>
+    <col min="11007" max="11007" width="9.5" style="4" customWidth="1"/>
+    <col min="11008" max="11008" width="14.33203125" style="4" customWidth="1"/>
     <col min="11009" max="11009" width="27" style="4" customWidth="1"/>
-    <col min="11010" max="11010" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11011" max="11011" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11014" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="9.42578125" style="4" customWidth="1"/>
-    <col min="11016" max="11262" width="11.42578125" style="4"/>
-    <col min="11263" max="11263" width="9.5703125" style="4" customWidth="1"/>
-    <col min="11264" max="11264" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11012" max="11014" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="9.5" style="4" customWidth="1"/>
+    <col min="11016" max="11262" width="11.5" style="4"/>
+    <col min="11263" max="11263" width="9.5" style="4" customWidth="1"/>
+    <col min="11264" max="11264" width="14.33203125" style="4" customWidth="1"/>
     <col min="11265" max="11265" width="27" style="4" customWidth="1"/>
-    <col min="11266" max="11266" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11267" max="11267" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11270" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="9.42578125" style="4" customWidth="1"/>
-    <col min="11272" max="11518" width="11.42578125" style="4"/>
-    <col min="11519" max="11519" width="9.5703125" style="4" customWidth="1"/>
-    <col min="11520" max="11520" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11268" max="11270" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="9.5" style="4" customWidth="1"/>
+    <col min="11272" max="11518" width="11.5" style="4"/>
+    <col min="11519" max="11519" width="9.5" style="4" customWidth="1"/>
+    <col min="11520" max="11520" width="14.33203125" style="4" customWidth="1"/>
     <col min="11521" max="11521" width="27" style="4" customWidth="1"/>
-    <col min="11522" max="11522" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11523" max="11523" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11526" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="9.42578125" style="4" customWidth="1"/>
-    <col min="11528" max="11774" width="11.42578125" style="4"/>
-    <col min="11775" max="11775" width="9.5703125" style="4" customWidth="1"/>
-    <col min="11776" max="11776" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11524" max="11526" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="9.5" style="4" customWidth="1"/>
+    <col min="11528" max="11774" width="11.5" style="4"/>
+    <col min="11775" max="11775" width="9.5" style="4" customWidth="1"/>
+    <col min="11776" max="11776" width="14.33203125" style="4" customWidth="1"/>
     <col min="11777" max="11777" width="27" style="4" customWidth="1"/>
-    <col min="11778" max="11778" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="11779" max="11779" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11782" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="9.42578125" style="4" customWidth="1"/>
-    <col min="11784" max="12030" width="11.42578125" style="4"/>
-    <col min="12031" max="12031" width="9.5703125" style="4" customWidth="1"/>
-    <col min="12032" max="12032" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11780" max="11782" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="9.5" style="4" customWidth="1"/>
+    <col min="11784" max="12030" width="11.5" style="4"/>
+    <col min="12031" max="12031" width="9.5" style="4" customWidth="1"/>
+    <col min="12032" max="12032" width="14.33203125" style="4" customWidth="1"/>
     <col min="12033" max="12033" width="27" style="4" customWidth="1"/>
-    <col min="12034" max="12034" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="12035" max="12035" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12038" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="9.42578125" style="4" customWidth="1"/>
-    <col min="12040" max="12286" width="11.42578125" style="4"/>
-    <col min="12287" max="12287" width="9.5703125" style="4" customWidth="1"/>
-    <col min="12288" max="12288" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12036" max="12038" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="9.5" style="4" customWidth="1"/>
+    <col min="12040" max="12286" width="11.5" style="4"/>
+    <col min="12287" max="12287" width="9.5" style="4" customWidth="1"/>
+    <col min="12288" max="12288" width="14.33203125" style="4" customWidth="1"/>
     <col min="12289" max="12289" width="27" style="4" customWidth="1"/>
-    <col min="12290" max="12290" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="12291" max="12291" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12294" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="9.42578125" style="4" customWidth="1"/>
-    <col min="12296" max="12542" width="11.42578125" style="4"/>
-    <col min="12543" max="12543" width="9.5703125" style="4" customWidth="1"/>
-    <col min="12544" max="12544" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12292" max="12294" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="9.5" style="4" customWidth="1"/>
+    <col min="12296" max="12542" width="11.5" style="4"/>
+    <col min="12543" max="12543" width="9.5" style="4" customWidth="1"/>
+    <col min="12544" max="12544" width="14.33203125" style="4" customWidth="1"/>
     <col min="12545" max="12545" width="27" style="4" customWidth="1"/>
-    <col min="12546" max="12546" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="12547" max="12547" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12550" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="9.42578125" style="4" customWidth="1"/>
-    <col min="12552" max="12798" width="11.42578125" style="4"/>
-    <col min="12799" max="12799" width="9.5703125" style="4" customWidth="1"/>
-    <col min="12800" max="12800" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12548" max="12550" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="9.5" style="4" customWidth="1"/>
+    <col min="12552" max="12798" width="11.5" style="4"/>
+    <col min="12799" max="12799" width="9.5" style="4" customWidth="1"/>
+    <col min="12800" max="12800" width="14.33203125" style="4" customWidth="1"/>
     <col min="12801" max="12801" width="27" style="4" customWidth="1"/>
-    <col min="12802" max="12802" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="12803" max="12803" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12806" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="9.42578125" style="4" customWidth="1"/>
-    <col min="12808" max="13054" width="11.42578125" style="4"/>
-    <col min="13055" max="13055" width="9.5703125" style="4" customWidth="1"/>
-    <col min="13056" max="13056" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12804" max="12806" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="9.5" style="4" customWidth="1"/>
+    <col min="12808" max="13054" width="11.5" style="4"/>
+    <col min="13055" max="13055" width="9.5" style="4" customWidth="1"/>
+    <col min="13056" max="13056" width="14.33203125" style="4" customWidth="1"/>
     <col min="13057" max="13057" width="27" style="4" customWidth="1"/>
-    <col min="13058" max="13058" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13059" max="13059" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13062" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="9.42578125" style="4" customWidth="1"/>
-    <col min="13064" max="13310" width="11.42578125" style="4"/>
-    <col min="13311" max="13311" width="9.5703125" style="4" customWidth="1"/>
-    <col min="13312" max="13312" width="14.28515625" style="4" customWidth="1"/>
+    <col min="13060" max="13062" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="9.5" style="4" customWidth="1"/>
+    <col min="13064" max="13310" width="11.5" style="4"/>
+    <col min="13311" max="13311" width="9.5" style="4" customWidth="1"/>
+    <col min="13312" max="13312" width="14.33203125" style="4" customWidth="1"/>
     <col min="13313" max="13313" width="27" style="4" customWidth="1"/>
-    <col min="13314" max="13314" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13315" max="13315" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13318" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="9.42578125" style="4" customWidth="1"/>
-    <col min="13320" max="13566" width="11.42578125" style="4"/>
-    <col min="13567" max="13567" width="9.5703125" style="4" customWidth="1"/>
-    <col min="13568" max="13568" width="14.28515625" style="4" customWidth="1"/>
+    <col min="13316" max="13318" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="9.5" style="4" customWidth="1"/>
+    <col min="13320" max="13566" width="11.5" style="4"/>
+    <col min="13567" max="13567" width="9.5" style="4" customWidth="1"/>
+    <col min="13568" max="13568" width="14.33203125" style="4" customWidth="1"/>
     <col min="13569" max="13569" width="27" style="4" customWidth="1"/>
-    <col min="13570" max="13570" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13571" max="13571" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13574" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="9.42578125" style="4" customWidth="1"/>
-    <col min="13576" max="13822" width="11.42578125" style="4"/>
-    <col min="13823" max="13823" width="9.5703125" style="4" customWidth="1"/>
-    <col min="13824" max="13824" width="14.28515625" style="4" customWidth="1"/>
+    <col min="13572" max="13574" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="9.5" style="4" customWidth="1"/>
+    <col min="13576" max="13822" width="11.5" style="4"/>
+    <col min="13823" max="13823" width="9.5" style="4" customWidth="1"/>
+    <col min="13824" max="13824" width="14.33203125" style="4" customWidth="1"/>
     <col min="13825" max="13825" width="27" style="4" customWidth="1"/>
-    <col min="13826" max="13826" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13827" max="13827" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13830" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="9.42578125" style="4" customWidth="1"/>
-    <col min="13832" max="14078" width="11.42578125" style="4"/>
-    <col min="14079" max="14079" width="9.5703125" style="4" customWidth="1"/>
-    <col min="14080" max="14080" width="14.28515625" style="4" customWidth="1"/>
+    <col min="13828" max="13830" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="9.5" style="4" customWidth="1"/>
+    <col min="13832" max="14078" width="11.5" style="4"/>
+    <col min="14079" max="14079" width="9.5" style="4" customWidth="1"/>
+    <col min="14080" max="14080" width="14.33203125" style="4" customWidth="1"/>
     <col min="14081" max="14081" width="27" style="4" customWidth="1"/>
-    <col min="14082" max="14082" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14083" max="14083" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14086" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="9.42578125" style="4" customWidth="1"/>
-    <col min="14088" max="14334" width="11.42578125" style="4"/>
-    <col min="14335" max="14335" width="9.5703125" style="4" customWidth="1"/>
-    <col min="14336" max="14336" width="14.28515625" style="4" customWidth="1"/>
+    <col min="14084" max="14086" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="9.5" style="4" customWidth="1"/>
+    <col min="14088" max="14334" width="11.5" style="4"/>
+    <col min="14335" max="14335" width="9.5" style="4" customWidth="1"/>
+    <col min="14336" max="14336" width="14.33203125" style="4" customWidth="1"/>
     <col min="14337" max="14337" width="27" style="4" customWidth="1"/>
-    <col min="14338" max="14338" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14339" max="14339" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14342" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="9.42578125" style="4" customWidth="1"/>
-    <col min="14344" max="14590" width="11.42578125" style="4"/>
-    <col min="14591" max="14591" width="9.5703125" style="4" customWidth="1"/>
-    <col min="14592" max="14592" width="14.28515625" style="4" customWidth="1"/>
+    <col min="14340" max="14342" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="9.5" style="4" customWidth="1"/>
+    <col min="14344" max="14590" width="11.5" style="4"/>
+    <col min="14591" max="14591" width="9.5" style="4" customWidth="1"/>
+    <col min="14592" max="14592" width="14.33203125" style="4" customWidth="1"/>
     <col min="14593" max="14593" width="27" style="4" customWidth="1"/>
-    <col min="14594" max="14594" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14595" max="14595" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14598" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="9.42578125" style="4" customWidth="1"/>
-    <col min="14600" max="14846" width="11.42578125" style="4"/>
-    <col min="14847" max="14847" width="9.5703125" style="4" customWidth="1"/>
-    <col min="14848" max="14848" width="14.28515625" style="4" customWidth="1"/>
+    <col min="14596" max="14598" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="9.5" style="4" customWidth="1"/>
+    <col min="14600" max="14846" width="11.5" style="4"/>
+    <col min="14847" max="14847" width="9.5" style="4" customWidth="1"/>
+    <col min="14848" max="14848" width="14.33203125" style="4" customWidth="1"/>
     <col min="14849" max="14849" width="27" style="4" customWidth="1"/>
-    <col min="14850" max="14850" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14851" max="14851" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14854" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="9.42578125" style="4" customWidth="1"/>
-    <col min="14856" max="15102" width="11.42578125" style="4"/>
-    <col min="15103" max="15103" width="9.5703125" style="4" customWidth="1"/>
-    <col min="15104" max="15104" width="14.28515625" style="4" customWidth="1"/>
+    <col min="14852" max="14854" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="9.5" style="4" customWidth="1"/>
+    <col min="14856" max="15102" width="11.5" style="4"/>
+    <col min="15103" max="15103" width="9.5" style="4" customWidth="1"/>
+    <col min="15104" max="15104" width="14.33203125" style="4" customWidth="1"/>
     <col min="15105" max="15105" width="27" style="4" customWidth="1"/>
-    <col min="15106" max="15106" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="15107" max="15107" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15110" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="9.42578125" style="4" customWidth="1"/>
-    <col min="15112" max="15358" width="11.42578125" style="4"/>
-    <col min="15359" max="15359" width="9.5703125" style="4" customWidth="1"/>
-    <col min="15360" max="15360" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15108" max="15110" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="9.5" style="4" customWidth="1"/>
+    <col min="15112" max="15358" width="11.5" style="4"/>
+    <col min="15359" max="15359" width="9.5" style="4" customWidth="1"/>
+    <col min="15360" max="15360" width="14.33203125" style="4" customWidth="1"/>
     <col min="15361" max="15361" width="27" style="4" customWidth="1"/>
-    <col min="15362" max="15362" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="15363" max="15363" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15366" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="9.42578125" style="4" customWidth="1"/>
-    <col min="15368" max="15614" width="11.42578125" style="4"/>
-    <col min="15615" max="15615" width="9.5703125" style="4" customWidth="1"/>
-    <col min="15616" max="15616" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15364" max="15366" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="9.5" style="4" customWidth="1"/>
+    <col min="15368" max="15614" width="11.5" style="4"/>
+    <col min="15615" max="15615" width="9.5" style="4" customWidth="1"/>
+    <col min="15616" max="15616" width="14.33203125" style="4" customWidth="1"/>
     <col min="15617" max="15617" width="27" style="4" customWidth="1"/>
-    <col min="15618" max="15618" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="15619" max="15619" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15622" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="9.42578125" style="4" customWidth="1"/>
-    <col min="15624" max="15870" width="11.42578125" style="4"/>
-    <col min="15871" max="15871" width="9.5703125" style="4" customWidth="1"/>
-    <col min="15872" max="15872" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15620" max="15622" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="9.5" style="4" customWidth="1"/>
+    <col min="15624" max="15870" width="11.5" style="4"/>
+    <col min="15871" max="15871" width="9.5" style="4" customWidth="1"/>
+    <col min="15872" max="15872" width="14.33203125" style="4" customWidth="1"/>
     <col min="15873" max="15873" width="27" style="4" customWidth="1"/>
-    <col min="15874" max="15874" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="15875" max="15875" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15878" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="9.42578125" style="4" customWidth="1"/>
-    <col min="15880" max="16126" width="11.42578125" style="4"/>
-    <col min="16127" max="16127" width="9.5703125" style="4" customWidth="1"/>
-    <col min="16128" max="16128" width="14.28515625" style="4" customWidth="1"/>
+    <col min="15876" max="15878" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="9.5" style="4" customWidth="1"/>
+    <col min="15880" max="16126" width="11.5" style="4"/>
+    <col min="16127" max="16127" width="9.5" style="4" customWidth="1"/>
+    <col min="16128" max="16128" width="14.33203125" style="4" customWidth="1"/>
     <col min="16129" max="16129" width="27" style="4" customWidth="1"/>
-    <col min="16130" max="16130" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16131" max="16131" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16134" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="9.42578125" style="4" customWidth="1"/>
-    <col min="16136" max="16382" width="11.42578125" style="4"/>
-    <col min="16383" max="16384" width="11.42578125" style="4" customWidth="1"/>
+    <col min="16132" max="16134" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="9.5" style="4" customWidth="1"/>
+    <col min="16136" max="16382" width="11.5" style="4"/>
+    <col min="16383" max="16384" width="11.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="1" t="s">
         <v>1312</v>
       </c>
@@ -5554,33 +5425,33 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="47.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>1324</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="54" t="s">
         <v>1322</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="54" t="s">
         <v>1314</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="54" t="s">
         <v>1313</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="54" t="s">
         <v>1320</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="54" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -5594,7 +5465,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -5625,7 +5496,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -5656,7 +5527,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -5687,7 +5558,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5718,7 +5589,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5749,7 +5620,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -5780,7 +5651,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -5811,7 +5682,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5842,7 +5713,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -5873,7 +5744,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5904,7 +5775,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -5935,7 +5806,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -5966,7 +5837,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -5997,7 +5868,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -6028,7 +5899,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -6059,7 +5930,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15">
       <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
@@ -6080,27 +5951,27 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="11">
@@ -6119,11 +5990,11 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:13" ht="15">
+      <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="10"/>
@@ -6134,21 +6005,20 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:13" ht="15">
+      <c r="A23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
@@ -6174,7 +6044,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -6200,7 +6070,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>71</v>
       </c>
@@ -6226,7 +6096,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
@@ -6252,7 +6122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -6278,7 +6148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -6304,7 +6174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
@@ -6330,7 +6200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
@@ -6356,7 +6226,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
         <v>89</v>
       </c>
@@ -6382,7 +6252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
@@ -6408,21 +6278,20 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:8" ht="15">
+      <c r="A34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
@@ -6448,7 +6317,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>100</v>
       </c>
@@ -6474,7 +6343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>103</v>
       </c>
@@ -6500,7 +6369,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>106</v>
       </c>
@@ -6526,7 +6395,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>109</v>
       </c>
@@ -6552,7 +6421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
@@ -6578,7 +6447,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -6604,21 +6473,20 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:8" ht="15">
+      <c r="A42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="21"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>120</v>
       </c>
@@ -6644,7 +6512,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
@@ -6670,7 +6538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>126</v>
       </c>
@@ -6696,7 +6564,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>129</v>
       </c>
@@ -6722,7 +6590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>132</v>
       </c>
@@ -6748,7 +6616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>135</v>
       </c>
@@ -6774,7 +6642,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>138</v>
       </c>
@@ -6800,7 +6668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>141</v>
       </c>
@@ -6826,7 +6694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>144</v>
       </c>
@@ -6852,7 +6720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>147</v>
       </c>
@@ -6878,7 +6746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
@@ -6904,21 +6772,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:8" ht="15">
+      <c r="A54" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="21"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>155</v>
       </c>
@@ -6944,7 +6811,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>158</v>
       </c>
@@ -6970,7 +6837,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>161</v>
       </c>
@@ -6996,7 +6863,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>164</v>
       </c>
@@ -7022,7 +6889,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>167</v>
       </c>
@@ -7048,7 +6915,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>170</v>
       </c>
@@ -7074,7 +6941,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
         <v>173</v>
       </c>
@@ -7100,7 +6967,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>176</v>
       </c>
@@ -7126,7 +6993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>179</v>
       </c>
@@ -7152,7 +7019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>182</v>
       </c>
@@ -7178,7 +7045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>185</v>
       </c>
@@ -7204,7 +7071,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>188</v>
       </c>
@@ -7230,7 +7097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>191</v>
       </c>
@@ -7256,7 +7123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>194</v>
       </c>
@@ -7282,7 +7149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>197</v>
       </c>
@@ -7308,7 +7175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>200</v>
       </c>
@@ -7334,7 +7201,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>203</v>
       </c>
@@ -7360,7 +7227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15">
       <c r="B72" s="9" t="s">
         <v>55</v>
       </c>
@@ -7381,11 +7248,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+    <row r="73" spans="1:8" ht="15">
+      <c r="A73" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C73" s="10"/>
@@ -7395,7 +7262,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
         <v>208</v>
       </c>
@@ -7421,7 +7288,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
         <v>211</v>
       </c>
@@ -7447,7 +7314,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15">
       <c r="B76" s="9" t="s">
         <v>55</v>
       </c>
@@ -7468,29 +7335,28 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:8" ht="15">
+      <c r="A77" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:8" ht="15">
+      <c r="A78" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>218</v>
       </c>
@@ -7516,7 +7382,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>221</v>
       </c>
@@ -7542,7 +7408,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
         <v>224</v>
       </c>
@@ -7568,7 +7434,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
         <v>227</v>
       </c>
@@ -7594,7 +7460,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
         <v>230</v>
       </c>
@@ -7620,7 +7486,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
         <v>233</v>
       </c>
@@ -7646,7 +7512,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
         <v>236</v>
       </c>
@@ -7672,7 +7538,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
         <v>239</v>
       </c>
@@ -7698,7 +7564,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
         <v>242</v>
       </c>
@@ -7724,7 +7590,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
         <v>245</v>
       </c>
@@ -7750,7 +7616,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
         <v>248</v>
       </c>
@@ -7776,7 +7642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
         <v>251</v>
       </c>
@@ -7802,7 +7668,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
         <v>254</v>
       </c>
@@ -7828,7 +7694,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
         <v>257</v>
       </c>
@@ -7854,7 +7720,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
         <v>260</v>
       </c>
@@ -7880,21 +7746,20 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:8" ht="15">
+      <c r="A94" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
         <v>265</v>
       </c>
@@ -7920,7 +7785,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4" t="s">
         <v>268</v>
       </c>
@@ -7946,7 +7811,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
         <v>271</v>
       </c>
@@ -7972,7 +7837,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
         <v>274</v>
       </c>
@@ -7998,11 +7863,11 @@
         <v>824</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="25" t="s">
         <v>278</v>
       </c>
       <c r="C99" s="15" t="s">
@@ -8024,7 +7889,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>280</v>
       </c>
@@ -8050,7 +7915,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>283</v>
       </c>
@@ -8076,7 +7941,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>286</v>
       </c>
@@ -8102,7 +7967,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
         <v>289</v>
       </c>
@@ -8128,7 +7993,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
         <v>292</v>
       </c>
@@ -8154,7 +8019,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
         <v>295</v>
       </c>
@@ -8180,21 +8045,20 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+    <row r="106" spans="1:8" ht="15">
+      <c r="A106" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>300</v>
       </c>
@@ -8220,7 +8084,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
         <v>303</v>
       </c>
@@ -8246,7 +8110,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
         <v>306</v>
       </c>
@@ -8272,7 +8136,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
         <v>309</v>
       </c>
@@ -8298,7 +8162,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
         <v>312</v>
       </c>
@@ -8324,7 +8188,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
         <v>315</v>
       </c>
@@ -8350,7 +8214,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
         <v>318</v>
       </c>
@@ -8376,7 +8240,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
         <v>321</v>
       </c>
@@ -8402,21 +8266,20 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+    <row r="115" spans="1:9" ht="15">
+      <c r="A115" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="4" t="s">
         <v>326</v>
       </c>
@@ -8442,7 +8305,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4" t="s">
         <v>329</v>
       </c>
@@ -8469,7 +8332,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
         <v>332</v>
       </c>
@@ -8495,7 +8358,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
         <v>335</v>
       </c>
@@ -8521,7 +8384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
         <v>338</v>
       </c>
@@ -8547,7 +8410,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
         <v>341</v>
       </c>
@@ -8573,7 +8436,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
         <v>344</v>
       </c>
@@ -8599,21 +8462,20 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
         <v>349</v>
       </c>
@@ -8639,7 +8501,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
         <v>352</v>
       </c>
@@ -8665,7 +8527,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
         <v>355</v>
       </c>
@@ -8691,7 +8553,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="4" t="s">
         <v>358</v>
       </c>
@@ -8717,7 +8579,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="4" t="s">
         <v>361</v>
       </c>
@@ -8743,7 +8605,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>364</v>
       </c>
@@ -8769,7 +8631,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -8795,7 +8657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
         <v>370</v>
       </c>
@@ -8821,7 +8683,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>373</v>
       </c>
@@ -8847,7 +8709,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
         <v>376</v>
       </c>
@@ -8873,7 +8735,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
         <v>379</v>
       </c>
@@ -8899,7 +8761,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
         <v>382</v>
       </c>
@@ -8925,7 +8787,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15">
       <c r="B136" s="9" t="s">
         <v>55</v>
       </c>
@@ -8946,29 +8808,28 @@
         <v>529</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+    <row r="137" spans="1:8" ht="15">
+      <c r="A137" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+    <row r="138" spans="1:8" ht="15">
+      <c r="A138" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D138" s="20"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
         <v>389</v>
       </c>
@@ -8994,7 +8855,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
         <v>392</v>
       </c>
@@ -9020,7 +8881,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
         <v>395</v>
       </c>
@@ -9046,7 +8907,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
         <v>398</v>
       </c>
@@ -9072,7 +8933,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
         <v>401</v>
       </c>
@@ -9098,7 +8959,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>404</v>
       </c>
@@ -9124,7 +8985,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
         <v>407</v>
       </c>
@@ -9150,7 +9011,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
         <v>410</v>
       </c>
@@ -9176,7 +9037,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
         <v>413</v>
       </c>
@@ -9202,7 +9063,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
         <v>416</v>
       </c>
@@ -9228,7 +9089,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>419</v>
       </c>
@@ -9254,7 +9115,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
         <v>422</v>
       </c>
@@ -9280,7 +9141,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
         <v>425</v>
       </c>
@@ -9306,7 +9167,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
         <v>428</v>
       </c>
@@ -9332,21 +9193,20 @@
         <v>283</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+    <row r="153" spans="1:8" ht="15">
+      <c r="A153" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="C153" s="25"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D153" s="20"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
         <v>433</v>
       </c>
@@ -9372,7 +9232,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
         <v>436</v>
       </c>
@@ -9398,7 +9258,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>439</v>
       </c>
@@ -9424,7 +9284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
         <v>442</v>
       </c>
@@ -9450,7 +9310,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
         <v>445</v>
       </c>
@@ -9476,21 +9336,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
+    <row r="159" spans="1:8" ht="15">
+      <c r="A159" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D159" s="20"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>450</v>
       </c>
@@ -9516,7 +9375,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>453</v>
       </c>
@@ -9542,7 +9401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>456</v>
       </c>
@@ -9568,7 +9427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
         <v>459</v>
       </c>
@@ -9594,7 +9453,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
         <v>462</v>
       </c>
@@ -9620,7 +9479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>465</v>
       </c>
@@ -9646,7 +9505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
         <v>468</v>
       </c>
@@ -9672,7 +9531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="15">
       <c r="B167" s="9" t="s">
         <v>55</v>
       </c>
@@ -9693,29 +9552,28 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
+    <row r="168" spans="1:8" ht="15">
+      <c r="A168" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="18" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="24" t="s">
+    <row r="169" spans="1:8" ht="15">
+      <c r="A169" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="C169" s="25"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="22"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D169" s="20"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
         <v>475</v>
       </c>
@@ -9741,7 +9599,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
         <v>478</v>
       </c>
@@ -9767,7 +9625,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
         <v>481</v>
       </c>
@@ -9793,7 +9651,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
         <v>484</v>
       </c>
@@ -9819,7 +9677,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
         <v>487</v>
       </c>
@@ -9845,7 +9703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
         <v>490</v>
       </c>
@@ -9871,7 +9729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
         <v>493</v>
       </c>
@@ -9897,7 +9755,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
         <v>496</v>
       </c>
@@ -9923,7 +9781,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
         <v>499</v>
       </c>
@@ -9949,7 +9807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
         <v>502</v>
       </c>
@@ -9975,7 +9833,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
         <v>505</v>
       </c>
@@ -10001,21 +9859,20 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+    <row r="181" spans="1:8" ht="15">
+      <c r="A181" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B181" s="19" t="s">
+      <c r="B181" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="C181" s="25"/>
-      <c r="D181" s="21"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
       <c r="H181" s="16"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
         <v>510</v>
       </c>
@@ -10041,7 +9898,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
         <v>513</v>
       </c>
@@ -10067,7 +9924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
         <v>516</v>
       </c>
@@ -10093,7 +9950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
         <v>519</v>
       </c>
@@ -10119,7 +9976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
         <v>522</v>
       </c>
@@ -10145,21 +10002,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="24" t="s">
+    <row r="187" spans="1:8" ht="15">
+      <c r="A187" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="C187" s="25"/>
-      <c r="D187" s="21"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
       <c r="G187" s="16"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
         <v>527</v>
       </c>
@@ -10185,7 +10041,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
         <v>530</v>
       </c>
@@ -10211,7 +10067,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
         <v>533</v>
       </c>
@@ -10237,7 +10093,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
         <v>536</v>
       </c>
@@ -10263,7 +10119,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
         <v>539</v>
       </c>
@@ -10289,7 +10145,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
         <v>542</v>
       </c>
@@ -10315,7 +10171,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
         <v>545</v>
       </c>
@@ -10341,7 +10197,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
         <v>548</v>
       </c>
@@ -10367,7 +10223,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
         <v>551</v>
       </c>
@@ -10393,7 +10249,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
         <v>554</v>
       </c>
@@ -10419,7 +10275,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
         <v>557</v>
       </c>
@@ -10445,7 +10301,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
         <v>560</v>
       </c>
@@ -10471,7 +10327,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
         <v>563</v>
       </c>
@@ -10497,7 +10353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
         <v>566</v>
       </c>
@@ -10523,7 +10379,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
         <v>569</v>
       </c>
@@ -10549,7 +10405,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
         <v>572</v>
       </c>
@@ -10575,7 +10431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
         <v>575</v>
       </c>
@@ -10601,7 +10457,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
         <v>578</v>
       </c>
@@ -10627,7 +10483,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
         <v>581</v>
       </c>
@@ -10653,7 +10509,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
         <v>584</v>
       </c>
@@ -10679,12 +10535,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="15">
       <c r="B208" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C208" s="10"/>
-      <c r="D208" s="29">
+      <c r="D208" s="11">
         <v>19851.780000000002</v>
       </c>
       <c r="E208" s="12">
@@ -10700,43 +10556,41 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
+    <row r="209" spans="1:8" ht="15">
+      <c r="A209" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B209" s="19" t="s">
+      <c r="B209" s="18" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
+    <row r="210" spans="1:8" ht="15">
+      <c r="A210" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="B210" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="C210" s="25"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="22"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="22"/>
-      <c r="H210" s="22"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
+      <c r="D210" s="20"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+    </row>
+    <row r="211" spans="1:8" ht="15">
+      <c r="A211" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="C211" s="25"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="22"/>
-      <c r="H211" s="22"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D211" s="20"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
         <v>593</v>
       </c>
@@ -10762,7 +10616,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
         <v>596</v>
       </c>
@@ -10788,7 +10642,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
         <v>599</v>
       </c>
@@ -10814,7 +10668,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
         <v>602</v>
       </c>
@@ -10840,7 +10694,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
         <v>605</v>
       </c>
@@ -10866,7 +10720,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
         <v>608</v>
       </c>
@@ -10892,21 +10746,20 @@
         <v>514</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
+    <row r="218" spans="1:8" ht="15">
+      <c r="A218" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="C218" s="25"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="22"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D218" s="20"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
         <v>613</v>
       </c>
@@ -10932,7 +10785,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
         <v>616</v>
       </c>
@@ -10958,7 +10811,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
         <v>619</v>
       </c>
@@ -10984,7 +10837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
         <v>622</v>
       </c>
@@ -11010,7 +10863,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
         <v>625</v>
       </c>
@@ -11036,21 +10889,20 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
+    <row r="224" spans="1:8" ht="15">
+      <c r="A224" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="C224" s="25"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="22"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="22"/>
-      <c r="H224" s="22"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D224" s="20"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
         <v>630</v>
       </c>
@@ -11076,7 +10928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
         <v>633</v>
       </c>
@@ -11102,39 +10954,37 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="18" t="s">
+    <row r="227" spans="1:8" ht="15">
+      <c r="A227" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="C227" s="25"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="22"/>
-      <c r="F227" s="22"/>
-      <c r="G227" s="22"/>
-      <c r="H227" s="22"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="18" t="s">
+      <c r="D227" s="20"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+    </row>
+    <row r="228" spans="1:8" ht="15">
+      <c r="A228" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="C228" s="25"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="22" t="s">
+      <c r="D228" s="20"/>
+      <c r="E228" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F228" s="22" t="s">
+      <c r="F228" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
         <v>641</v>
       </c>
@@ -11160,7 +11010,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
         <v>644</v>
       </c>
@@ -11186,7 +11036,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
         <v>647</v>
       </c>
@@ -11212,7 +11062,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
         <v>650</v>
       </c>
@@ -11238,25 +11088,24 @@
         <v>312</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="18" t="s">
+    <row r="233" spans="1:8" ht="15">
+      <c r="A233" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="C233" s="25"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="22" t="s">
+      <c r="D233" s="20"/>
+      <c r="E233" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F233" s="22" t="s">
+      <c r="F233" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G233" s="22"/>
-      <c r="H233" s="22"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
         <v>655</v>
       </c>
@@ -11282,7 +11131,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
         <v>658</v>
       </c>
@@ -11308,7 +11157,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4" t="s">
         <v>661</v>
       </c>
@@ -11334,7 +11183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4" t="s">
         <v>664</v>
       </c>
@@ -11360,23 +11209,22 @@
         <v>526</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="18" t="s">
+    <row r="238" spans="1:8" ht="15">
+      <c r="A238" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="C238" s="25"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="22" t="s">
+      <c r="D238" s="20"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G238" s="22"/>
-      <c r="H238" s="22"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="4" t="s">
         <v>669</v>
       </c>
@@ -11402,7 +11250,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4" t="s">
         <v>672</v>
       </c>
@@ -11428,7 +11276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>675</v>
       </c>
@@ -11454,7 +11302,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4" t="s">
         <v>678</v>
       </c>
@@ -11480,39 +11328,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="18" t="s">
+    <row r="243" spans="1:8" ht="15">
+      <c r="A243" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B243" s="19" t="s">
+      <c r="B243" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="C243" s="25"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="22"/>
-      <c r="F243" s="22"/>
-      <c r="G243" s="22"/>
-      <c r="H243" s="22"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="18" t="s">
+      <c r="D243" s="20"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+    </row>
+    <row r="244" spans="1:8" ht="15">
+      <c r="A244" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="C244" s="25"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="22" t="s">
+      <c r="D244" s="20"/>
+      <c r="E244" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F244" s="22" t="s">
+      <c r="F244" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="4" t="s">
         <v>685</v>
       </c>
@@ -11538,7 +11384,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4" t="s">
         <v>688</v>
       </c>
@@ -11564,7 +11410,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4" t="s">
         <v>691</v>
       </c>
@@ -11590,7 +11436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4" t="s">
         <v>694</v>
       </c>
@@ -11616,21 +11462,20 @@
         <v>239</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="18" t="s">
+    <row r="249" spans="1:8" ht="15">
+      <c r="A249" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="C249" s="25"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="22"/>
-      <c r="F249" s="22"/>
-      <c r="G249" s="22"/>
-      <c r="H249" s="22"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D249" s="20"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>699</v>
       </c>
@@ -11656,7 +11501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4" t="s">
         <v>702</v>
       </c>
@@ -11682,7 +11527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4" t="s">
         <v>705</v>
       </c>
@@ -11708,25 +11553,24 @@
         <v>198</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="18" t="s">
+    <row r="253" spans="1:8" ht="15">
+      <c r="A253" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="C253" s="25"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="22" t="s">
+      <c r="D253" s="20"/>
+      <c r="E253" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F253" s="22" t="s">
+      <c r="F253" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G253" s="22"/>
-      <c r="H253" s="22"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>710</v>
       </c>
@@ -11752,7 +11596,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4" t="s">
         <v>713</v>
       </c>
@@ -11778,7 +11622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4" t="s">
         <v>716</v>
       </c>
@@ -11804,39 +11648,37 @@
         <v>152</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="18" t="s">
+    <row r="257" spans="1:8" ht="15">
+      <c r="A257" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B257" s="19" t="s">
+      <c r="B257" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="C257" s="25"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="22"/>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
-      <c r="H257" s="22"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="18" t="s">
+      <c r="D257" s="20"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+    </row>
+    <row r="258" spans="1:8" ht="15">
+      <c r="A258" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="C258" s="25"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="22" t="s">
+      <c r="D258" s="20"/>
+      <c r="E258" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F258" s="22" t="s">
+      <c r="F258" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="4" t="s">
         <v>723</v>
       </c>
@@ -11862,7 +11704,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4" t="s">
         <v>726</v>
       </c>
@@ -11888,7 +11730,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4" t="s">
         <v>729</v>
       </c>
@@ -11914,25 +11756,24 @@
         <v>211</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="18" t="s">
+    <row r="262" spans="1:8" ht="15">
+      <c r="A262" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="C262" s="25"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="22" t="s">
+      <c r="D262" s="20"/>
+      <c r="E262" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="F262" s="22" t="s">
+      <c r="F262" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="G262" s="22"/>
-      <c r="H262" s="22"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="4" t="s">
         <v>734</v>
       </c>
@@ -11958,7 +11799,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4" t="s">
         <v>737</v>
       </c>
@@ -11984,7 +11825,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4" t="s">
         <v>740</v>
       </c>
@@ -12010,25 +11851,25 @@
         <v>147</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="18" t="s">
+    <row r="266" spans="1:8" ht="15">
+      <c r="A266" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="C266" s="31"/>
-      <c r="D266" s="32"/>
-      <c r="E266" s="33" t="s">
+      <c r="C266" s="27"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="F266" s="33" t="s">
+      <c r="F266" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="G266" s="33"/>
-      <c r="H266" s="34"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G266" s="29"/>
+      <c r="H266" s="30"/>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="4" t="s">
         <v>745</v>
       </c>
@@ -12054,7 +11895,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4" t="s">
         <v>748</v>
       </c>
@@ -12080,7 +11921,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4" t="s">
         <v>751</v>
       </c>
@@ -12106,7 +11947,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="15">
       <c r="B270" s="9" t="s">
         <v>55</v>
       </c>
@@ -12127,34 +11968,33 @@
         <v>315</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="18" t="s">
+    <row r="271" spans="1:8" ht="15">
+      <c r="A271" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B271" s="19" t="s">
+      <c r="B271" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="D271" s="21"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="22"/>
-      <c r="H271" s="22"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="18" t="s">
+      <c r="D271" s="20"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+    </row>
+    <row r="272" spans="1:8" ht="15">
+      <c r="A272" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="B272" s="19" t="s">
+      <c r="B272" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="C272" s="25"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="22"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="22"/>
-      <c r="H272" s="22"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D272" s="20"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="4" t="s">
         <v>758</v>
       </c>
@@ -12180,7 +12020,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4" t="s">
         <v>761</v>
       </c>
@@ -12206,7 +12046,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4" t="s">
         <v>764</v>
       </c>
@@ -12232,7 +12072,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>767</v>
       </c>
@@ -12258,7 +12098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4" t="s">
         <v>770</v>
       </c>
@@ -12284,7 +12124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4" t="s">
         <v>773</v>
       </c>
@@ -12310,7 +12150,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4" t="s">
         <v>776</v>
       </c>
@@ -12336,7 +12176,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4" t="s">
         <v>779</v>
       </c>
@@ -12362,7 +12202,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4" t="s">
         <v>782</v>
       </c>
@@ -12388,7 +12228,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4" t="s">
         <v>785</v>
       </c>
@@ -12414,7 +12254,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" s="4" t="s">
         <v>788</v>
       </c>
@@ -12440,7 +12280,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" s="4" t="s">
         <v>791</v>
       </c>
@@ -12466,7 +12306,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" s="4" t="s">
         <v>794</v>
       </c>
@@ -12492,7 +12332,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" s="4" t="s">
         <v>797</v>
       </c>
@@ -12518,7 +12358,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" s="4" t="s">
         <v>800</v>
       </c>
@@ -12544,7 +12384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" s="4" t="s">
         <v>803</v>
       </c>
@@ -12570,7 +12410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" s="4" t="s">
         <v>806</v>
       </c>
@@ -12596,7 +12436,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" s="4" t="s">
         <v>809</v>
       </c>
@@ -12622,7 +12462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" s="4" t="s">
         <v>812</v>
       </c>
@@ -12648,7 +12488,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" s="4" t="s">
         <v>815</v>
       </c>
@@ -12674,7 +12514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" s="4" t="s">
         <v>817</v>
       </c>
@@ -12700,7 +12540,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" s="4" t="s">
         <v>820</v>
       </c>
@@ -12726,7 +12566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="4" t="s">
         <v>823</v>
       </c>
@@ -12752,21 +12592,20 @@
         <v>144</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="18" t="s">
+    <row r="296" spans="1:8" ht="15">
+      <c r="A296" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B296" s="19" t="s">
+      <c r="B296" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="C296" s="25"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="22"/>
-      <c r="G296" s="22"/>
-      <c r="H296" s="22"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D296" s="20"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="4" t="s">
         <v>828</v>
       </c>
@@ -12792,7 +12631,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>831</v>
       </c>
@@ -12818,7 +12657,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" s="4" t="s">
         <v>834</v>
       </c>
@@ -12844,7 +12683,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" s="4" t="s">
         <v>837</v>
       </c>
@@ -12870,7 +12709,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" s="4" t="s">
         <v>840</v>
       </c>
@@ -12896,7 +12735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" s="4" t="s">
         <v>843</v>
       </c>
@@ -12922,7 +12761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" s="4" t="s">
         <v>846</v>
       </c>
@@ -12948,7 +12787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" s="4" t="s">
         <v>848</v>
       </c>
@@ -12974,7 +12813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" s="4" t="s">
         <v>850</v>
       </c>
@@ -13000,7 +12839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" s="4" t="s">
         <v>853</v>
       </c>
@@ -13026,7 +12865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" s="4" t="s">
         <v>856</v>
       </c>
@@ -13052,7 +12891,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" s="4" t="s">
         <v>859</v>
       </c>
@@ -13078,21 +12917,20 @@
         <v>115</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="18" t="s">
+    <row r="309" spans="1:8" ht="15">
+      <c r="A309" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B309" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="C309" s="25"/>
-      <c r="D309" s="21"/>
-      <c r="E309" s="22"/>
-      <c r="F309" s="22"/>
-      <c r="G309" s="22"/>
-      <c r="H309" s="22"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D309" s="20"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="21"/>
+      <c r="G309" s="21"/>
+      <c r="H309" s="21"/>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="4" t="s">
         <v>864</v>
       </c>
@@ -13118,7 +12956,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" s="4" t="s">
         <v>867</v>
       </c>
@@ -13144,7 +12982,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" s="4" t="s">
         <v>870</v>
       </c>
@@ -13170,7 +13008,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" s="4" t="s">
         <v>873</v>
       </c>
@@ -13196,7 +13034,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" s="4" t="s">
         <v>876</v>
       </c>
@@ -13222,7 +13060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" s="4" t="s">
         <v>879</v>
       </c>
@@ -13248,7 +13086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" s="4" t="s">
         <v>882</v>
       </c>
@@ -13274,7 +13112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" s="4" t="s">
         <v>885</v>
       </c>
@@ -13300,7 +13138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" s="4" t="s">
         <v>887</v>
       </c>
@@ -13326,7 +13164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" s="4" t="s">
         <v>890</v>
       </c>
@@ -13352,21 +13190,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="18" t="s">
+    <row r="320" spans="1:8" ht="15">
+      <c r="A320" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B320" s="19" t="s">
+      <c r="B320" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="C320" s="25"/>
-      <c r="D320" s="21"/>
-      <c r="E320" s="22"/>
-      <c r="F320" s="22"/>
-      <c r="G320" s="22"/>
-      <c r="H320" s="22"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D320" s="20"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21"/>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="4" t="s">
         <v>895</v>
       </c>
@@ -13392,7 +13229,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" s="4" t="s">
         <v>898</v>
       </c>
@@ -13418,7 +13255,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" s="4" t="s">
         <v>901</v>
       </c>
@@ -13444,7 +13281,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" s="4" t="s">
         <v>904</v>
       </c>
@@ -13470,7 +13307,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" s="4" t="s">
         <v>907</v>
       </c>
@@ -13496,7 +13333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" s="4" t="s">
         <v>909</v>
       </c>
@@ -13522,7 +13359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" s="4" t="s">
         <v>911</v>
       </c>
@@ -13548,7 +13385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" s="4" t="s">
         <v>913</v>
       </c>
@@ -13574,7 +13411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" s="4" t="s">
         <v>916</v>
       </c>
@@ -13600,7 +13437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" s="4" t="s">
         <v>918</v>
       </c>
@@ -13626,7 +13463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" s="4" t="s">
         <v>921</v>
       </c>
@@ -13652,7 +13489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" s="4" t="s">
         <v>924</v>
       </c>
@@ -13678,7 +13515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" s="4" t="s">
         <v>927</v>
       </c>
@@ -13704,23 +13541,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="18" t="s">
+    <row r="334" spans="1:8" ht="15">
+      <c r="A334" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B334" s="19" t="s">
+      <c r="B334" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="C334" s="25" t="s">
+      <c r="C334" s="19" t="s">
         <v>1317</v>
       </c>
-      <c r="D334" s="21"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="22"/>
-      <c r="G334" s="22"/>
-      <c r="H334" s="22"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D334" s="20"/>
+      <c r="E334" s="21"/>
+      <c r="F334" s="21"/>
+      <c r="G334" s="21"/>
+      <c r="H334" s="21"/>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="4" t="s">
         <v>932</v>
       </c>
@@ -13746,7 +13583,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" s="4" t="s">
         <v>935</v>
       </c>
@@ -13772,7 +13609,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" s="4" t="s">
         <v>938</v>
       </c>
@@ -13798,7 +13635,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" s="4" t="s">
         <v>941</v>
       </c>
@@ -13824,7 +13661,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" s="4" t="s">
         <v>944</v>
       </c>
@@ -13850,7 +13687,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" s="4" t="s">
         <v>947</v>
       </c>
@@ -13876,7 +13713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" s="4" t="s">
         <v>949</v>
       </c>
@@ -13902,7 +13739,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" s="4" t="s">
         <v>952</v>
       </c>
@@ -13928,7 +13765,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" s="4" t="s">
         <v>954</v>
       </c>
@@ -13954,7 +13791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" s="4" t="s">
         <v>957</v>
       </c>
@@ -13980,7 +13817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" s="4" t="s">
         <v>960</v>
       </c>
@@ -14006,7 +13843,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" s="4" t="s">
         <v>963</v>
       </c>
@@ -14032,23 +13869,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="18" t="s">
+    <row r="347" spans="1:8" ht="15">
+      <c r="A347" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B347" s="19" t="s">
+      <c r="B347" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="C347" s="25" t="s">
+      <c r="C347" s="19" t="s">
         <v>1315</v>
       </c>
-      <c r="D347" s="21"/>
-      <c r="E347" s="22"/>
-      <c r="F347" s="22"/>
-      <c r="G347" s="22"/>
-      <c r="H347" s="22"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D347" s="20"/>
+      <c r="E347" s="21"/>
+      <c r="F347" s="21"/>
+      <c r="G347" s="21"/>
+      <c r="H347" s="21"/>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="4" t="s">
         <v>968</v>
       </c>
@@ -14074,7 +13911,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" s="4" t="s">
         <v>971</v>
       </c>
@@ -14100,7 +13937,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" s="4" t="s">
         <v>974</v>
       </c>
@@ -14126,7 +13963,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" s="4" t="s">
         <v>977</v>
       </c>
@@ -14152,7 +13989,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" s="4" t="s">
         <v>979</v>
       </c>
@@ -14178,7 +14015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" s="4" t="s">
         <v>982</v>
       </c>
@@ -14204,7 +14041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" s="4" t="s">
         <v>985</v>
       </c>
@@ -14230,7 +14067,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" s="4" t="s">
         <v>988</v>
       </c>
@@ -14256,7 +14093,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" s="4" t="s">
         <v>991</v>
       </c>
@@ -14282,7 +14119,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" s="4" t="s">
         <v>994</v>
       </c>
@@ -14308,7 +14145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" s="4" t="s">
         <v>997</v>
       </c>
@@ -14334,7 +14171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" s="4" t="s">
         <v>999</v>
       </c>
@@ -14360,23 +14197,23 @@
         <v>168</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="18" t="s">
+    <row r="360" spans="1:8" ht="15">
+      <c r="A360" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B360" s="19" t="s">
+      <c r="B360" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="C360" s="25" t="s">
+      <c r="C360" s="19" t="s">
         <v>1316</v>
       </c>
-      <c r="D360" s="21"/>
-      <c r="E360" s="22"/>
-      <c r="F360" s="22"/>
-      <c r="G360" s="22"/>
-      <c r="H360" s="22"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D360" s="20"/>
+      <c r="E360" s="21"/>
+      <c r="F360" s="21"/>
+      <c r="G360" s="21"/>
+      <c r="H360" s="21"/>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="4" t="s">
         <v>1003</v>
       </c>
@@ -14402,7 +14239,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" s="4" t="s">
         <v>1006</v>
       </c>
@@ -14428,7 +14265,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" s="4" t="s">
         <v>1009</v>
       </c>
@@ -14454,7 +14291,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" s="4" t="s">
         <v>1012</v>
       </c>
@@ -14480,7 +14317,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" s="4" t="s">
         <v>1015</v>
       </c>
@@ -14506,7 +14343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" s="4" t="s">
         <v>1018</v>
       </c>
@@ -14532,7 +14369,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" s="4" t="s">
         <v>1020</v>
       </c>
@@ -14558,7 +14395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>1023</v>
       </c>
@@ -14584,7 +14421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" s="4" t="s">
         <v>1026</v>
       </c>
@@ -14610,7 +14447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370" s="4" t="s">
         <v>1029</v>
       </c>
@@ -14636,7 +14473,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371" s="4" t="s">
         <v>1032</v>
       </c>
@@ -14662,7 +14499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372" s="4" t="s">
         <v>1035</v>
       </c>
@@ -14688,7 +14525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373" s="4" t="s">
         <v>1038</v>
       </c>
@@ -14714,7 +14551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374" s="4" t="s">
         <v>1041</v>
       </c>
@@ -14740,12 +14577,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="15">
       <c r="B375" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C375" s="10"/>
-      <c r="D375" s="29">
+      <c r="D375" s="11">
         <v>70541.760000000009</v>
       </c>
       <c r="E375" s="12">
@@ -14761,20 +14598,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="18" t="s">
+    <row r="376" spans="1:8" ht="15">
+      <c r="A376" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="B376" s="19" t="s">
+      <c r="B376" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="D376" s="21"/>
-      <c r="E376" s="22"/>
-      <c r="F376" s="22"/>
-      <c r="G376" s="22"/>
-      <c r="H376" s="22"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D376" s="20"/>
+      <c r="E376" s="21"/>
+      <c r="F376" s="21"/>
+      <c r="G376" s="21"/>
+      <c r="H376" s="21"/>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="4" t="s">
         <v>1046</v>
       </c>
@@ -14800,7 +14637,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14826,7 +14663,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379" s="4" t="s">
         <v>1052</v>
       </c>
@@ -14852,7 +14689,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380" s="4" t="s">
         <v>1055</v>
       </c>
@@ -14878,7 +14715,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381" s="4" t="s">
         <v>1058</v>
       </c>
@@ -14904,7 +14741,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382" s="4" t="s">
         <v>1061</v>
       </c>
@@ -14930,7 +14767,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="15">
       <c r="B383" s="9" t="s">
         <v>55</v>
       </c>
@@ -14951,20 +14788,20 @@
         <v>394</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="18" t="s">
+    <row r="384" spans="1:8" ht="15">
+      <c r="A384" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="B384" s="19" t="s">
+      <c r="B384" s="18" t="s">
         <v>1065</v>
       </c>
-      <c r="D384" s="21"/>
-      <c r="E384" s="22"/>
-      <c r="F384" s="22"/>
-      <c r="G384" s="22"/>
-      <c r="H384" s="22"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D384" s="20"/>
+      <c r="E384" s="21"/>
+      <c r="F384" s="21"/>
+      <c r="G384" s="21"/>
+      <c r="H384" s="21"/>
+    </row>
+    <row r="385" spans="1:8" ht="15">
       <c r="A385" s="4" t="s">
         <v>1066</v>
       </c>
@@ -14974,36 +14811,36 @@
       <c r="C385" s="15" t="s">
         <v>1068</v>
       </c>
-      <c r="D385" s="35">
+      <c r="D385" s="31">
         <v>891.12</v>
       </c>
-      <c r="E385" s="36">
+      <c r="E385" s="32">
         <v>3685265</v>
       </c>
-      <c r="F385" s="36">
+      <c r="F385" s="32">
         <v>1810259</v>
       </c>
-      <c r="G385" s="36">
+      <c r="G385" s="32">
         <v>1875006</v>
       </c>
-      <c r="H385" s="36">
+      <c r="H385" s="32">
         <v>4136</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="18" t="s">
+    <row r="386" spans="1:8" ht="15">
+      <c r="A386" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B386" s="19" t="s">
+      <c r="B386" s="18" t="s">
         <v>1070</v>
       </c>
-      <c r="D386" s="21"/>
-      <c r="E386" s="22"/>
-      <c r="F386" s="22"/>
-      <c r="G386" s="22"/>
-      <c r="H386" s="22"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D386" s="20"/>
+      <c r="E386" s="21"/>
+      <c r="F386" s="21"/>
+      <c r="G386" s="21"/>
+      <c r="H386" s="21"/>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="4" t="s">
         <v>1071</v>
       </c>
@@ -15029,7 +14866,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388" s="4" t="s">
         <v>1074</v>
       </c>
@@ -15055,7 +14892,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389" s="4" t="s">
         <v>1077</v>
       </c>
@@ -15081,7 +14918,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390" s="4" t="s">
         <v>1080</v>
       </c>
@@ -15107,7 +14944,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391" s="4" t="s">
         <v>1083</v>
       </c>
@@ -15133,7 +14970,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392" s="4" t="s">
         <v>1086</v>
       </c>
@@ -15159,7 +14996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393" s="4" t="s">
         <v>1089</v>
       </c>
@@ -15185,7 +15022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394" s="4" t="s">
         <v>1092</v>
       </c>
@@ -15211,7 +15048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395" s="4" t="s">
         <v>1095</v>
       </c>
@@ -15237,7 +15074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396" s="4" t="s">
         <v>1098</v>
       </c>
@@ -15263,7 +15100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397" s="4" t="s">
         <v>1101</v>
       </c>
@@ -15289,7 +15126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398" s="4" t="s">
         <v>1104</v>
       </c>
@@ -15315,7 +15152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399" s="4" t="s">
         <v>1107</v>
       </c>
@@ -15341,7 +15178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15367,7 +15204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401" s="4" t="s">
         <v>1113</v>
       </c>
@@ -15393,7 +15230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402" s="4" t="s">
         <v>1116</v>
       </c>
@@ -15419,7 +15256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403" s="4" t="s">
         <v>1119</v>
       </c>
@@ -15445,7 +15282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404" s="4" t="s">
         <v>1122</v>
       </c>
@@ -15471,7 +15308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="15">
       <c r="B405" s="9" t="s">
         <v>55</v>
       </c>
@@ -15492,20 +15329,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="18" t="s">
+    <row r="406" spans="1:8" ht="15">
+      <c r="A406" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B406" s="19" t="s">
+      <c r="B406" s="18" t="s">
         <v>1126</v>
       </c>
-      <c r="D406" s="21"/>
-      <c r="E406" s="22"/>
-      <c r="F406" s="22"/>
-      <c r="G406" s="22"/>
-      <c r="H406" s="22"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D406" s="20"/>
+      <c r="E406" s="21"/>
+      <c r="F406" s="21"/>
+      <c r="G406" s="21"/>
+      <c r="H406" s="21"/>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="4" t="s">
         <v>1127</v>
       </c>
@@ -15531,8 +15368,8 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="37" t="s">
+    <row r="408" spans="1:8">
+      <c r="A408" s="17" t="s">
         <v>1130</v>
       </c>
       <c r="B408" s="14" t="s">
@@ -15557,37 +15394,37 @@
         <v>753</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409" s="17" t="s">
         <v>1133</v>
       </c>
-      <c r="B409" s="28" t="s">
+      <c r="B409" s="25" t="s">
         <v>1134</v>
       </c>
-      <c r="C409" s="20" t="s">
+      <c r="C409" s="19" t="s">
         <v>1135</v>
       </c>
-      <c r="D409" s="26">
+      <c r="D409" s="23">
         <v>5495.58</v>
       </c>
-      <c r="E409" s="27">
+      <c r="E409" s="24">
         <v>246318</v>
       </c>
-      <c r="F409" s="27">
+      <c r="F409" s="24">
         <v>119976</v>
       </c>
-      <c r="G409" s="27">
+      <c r="G409" s="24">
         <v>126342</v>
       </c>
-      <c r="H409" s="27">
+      <c r="H409" s="24">
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410" s="17" t="s">
         <v>1136</v>
       </c>
-      <c r="B410" s="28" t="s">
+      <c r="B410" s="25" t="s">
         <v>1137</v>
       </c>
       <c r="C410" s="15" t="s">
@@ -15609,11 +15446,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="B411" s="28" t="s">
+      <c r="B411" s="25" t="s">
         <v>1140</v>
       </c>
       <c r="C411" s="15" t="s">
@@ -15635,11 +15472,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412" s="17" t="s">
         <v>1142</v>
       </c>
-      <c r="B412" s="28" t="s">
+      <c r="B412" s="25" t="s">
         <v>1143</v>
       </c>
       <c r="C412" s="15" t="s">
@@ -15661,11 +15498,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413" s="17" t="s">
         <v>1145</v>
       </c>
-      <c r="B413" s="28" t="s">
+      <c r="B413" s="25" t="s">
         <v>1146</v>
       </c>
       <c r="C413" s="15" t="s">
@@ -15687,11 +15524,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414" s="17" t="s">
         <v>1148</v>
       </c>
-      <c r="B414" s="28" t="s">
+      <c r="B414" s="25" t="s">
         <v>1149</v>
       </c>
       <c r="C414" s="15" t="s">
@@ -15713,12 +15550,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="15">
       <c r="B415" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C415" s="10"/>
-      <c r="D415" s="29">
+      <c r="D415" s="11">
         <v>23293.82</v>
       </c>
       <c r="E415" s="12">
@@ -15734,38 +15571,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="18" t="s">
+    <row r="416" spans="1:8" ht="15">
+      <c r="A416" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="B416" s="19" t="s">
+      <c r="B416" s="18" t="s">
         <v>1152</v>
       </c>
-      <c r="D416" s="21"/>
-      <c r="E416" s="22"/>
-      <c r="F416" s="22"/>
-      <c r="G416" s="22"/>
-      <c r="H416" s="22"/>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="19">
+      <c r="D416" s="20"/>
+      <c r="E416" s="21"/>
+      <c r="F416" s="21"/>
+      <c r="G416" s="21"/>
+      <c r="H416" s="21"/>
+    </row>
+    <row r="417" spans="1:8" ht="15">
+      <c r="A417" s="18">
         <v>145</v>
       </c>
-      <c r="B417" s="19" t="s">
+      <c r="B417" s="18" t="s">
         <v>1300</v>
       </c>
-      <c r="C417" s="25"/>
-      <c r="D417" s="21"/>
-      <c r="E417" s="22"/>
-      <c r="F417" s="22"/>
-      <c r="G417" s="22"/>
-      <c r="H417" s="22"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D417" s="20"/>
+      <c r="E417" s="21"/>
+      <c r="F417" s="21"/>
+      <c r="G417" s="21"/>
+      <c r="H417" s="21"/>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="17" t="s">
         <v>1153</v>
       </c>
-      <c r="B418" s="28" t="s">
+      <c r="B418" s="25" t="s">
         <v>1154</v>
       </c>
       <c r="C418" s="15" t="s">
@@ -15787,11 +15623,11 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B419" s="38" t="s">
+      <c r="B419" s="33" t="s">
         <v>1157</v>
       </c>
       <c r="C419" s="15" t="s">
@@ -15813,7 +15649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420" s="4" t="s">
         <v>1159</v>
       </c>
@@ -15839,7 +15675,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421" s="4" t="s">
         <v>1162</v>
       </c>
@@ -15865,7 +15701,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422" s="4" t="s">
         <v>1165</v>
       </c>
@@ -15891,21 +15727,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423" s="19">
+    <row r="423" spans="1:8" ht="15">
+      <c r="A423" s="18">
         <v>146</v>
       </c>
-      <c r="B423" s="19" t="s">
+      <c r="B423" s="18" t="s">
         <v>1301</v>
       </c>
-      <c r="C423" s="25"/>
-      <c r="D423" s="21"/>
-      <c r="E423" s="22"/>
-      <c r="F423" s="22"/>
-      <c r="G423" s="22"/>
-      <c r="H423" s="22"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D423" s="20"/>
+      <c r="E423" s="21"/>
+      <c r="F423" s="21"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="21"/>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="4" t="s">
         <v>1168</v>
       </c>
@@ -15931,7 +15766,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" s="4" t="s">
         <v>1171</v>
       </c>
@@ -15957,7 +15792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" s="4" t="s">
         <v>1174</v>
       </c>
@@ -15983,7 +15818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427" s="4" t="s">
         <v>1177</v>
       </c>
@@ -16009,7 +15844,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428" s="4" t="s">
         <v>1180</v>
       </c>
@@ -16035,21 +15870,20 @@
         <v>147</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="19">
+    <row r="429" spans="1:8" ht="15">
+      <c r="A429" s="18">
         <v>147</v>
       </c>
-      <c r="B429" s="19" t="s">
+      <c r="B429" s="18" t="s">
         <v>1302</v>
       </c>
-      <c r="C429" s="25"/>
-      <c r="D429" s="21"/>
-      <c r="E429" s="22"/>
-      <c r="F429" s="22"/>
-      <c r="G429" s="22"/>
-      <c r="H429" s="22"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D429" s="20"/>
+      <c r="E429" s="21"/>
+      <c r="F429" s="21"/>
+      <c r="G429" s="21"/>
+      <c r="H429" s="21"/>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="4" t="s">
         <v>1183</v>
       </c>
@@ -16075,7 +15909,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431" s="4" t="s">
         <v>1186</v>
       </c>
@@ -16101,7 +15935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432" s="4" t="s">
         <v>1189</v>
       </c>
@@ -16127,7 +15961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="15">
       <c r="B433" s="9" t="s">
         <v>55</v>
       </c>
@@ -16148,20 +15982,20 @@
         <v>219</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="18" t="s">
+    <row r="434" spans="1:8" ht="15">
+      <c r="A434" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B434" s="19" t="s">
+      <c r="B434" s="18" t="s">
         <v>1193</v>
       </c>
-      <c r="D434" s="21"/>
-      <c r="E434" s="22"/>
-      <c r="F434" s="22"/>
-      <c r="G434" s="22"/>
-      <c r="H434" s="22"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D434" s="20"/>
+      <c r="E434" s="21"/>
+      <c r="F434" s="21"/>
+      <c r="G434" s="21"/>
+      <c r="H434" s="21"/>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" s="4" t="s">
         <v>1194</v>
       </c>
@@ -16187,7 +16021,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436" s="4" t="s">
         <v>1197</v>
       </c>
@@ -16213,7 +16047,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" s="4" t="s">
         <v>1200</v>
       </c>
@@ -16239,7 +16073,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" s="4" t="s">
         <v>1203</v>
       </c>
@@ -16265,7 +16099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" s="4" t="s">
         <v>1206</v>
       </c>
@@ -16291,7 +16125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440" s="4" t="s">
         <v>1209</v>
       </c>
@@ -16317,7 +16151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441" s="4" t="s">
         <v>1212</v>
       </c>
@@ -16343,7 +16177,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442" s="4" t="s">
         <v>1215</v>
       </c>
@@ -16369,7 +16203,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443" s="4" t="s">
         <v>1218</v>
       </c>
@@ -16395,7 +16229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444" s="4" t="s">
         <v>1221</v>
       </c>
@@ -16421,7 +16255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445" s="4" t="s">
         <v>1224</v>
       </c>
@@ -16447,7 +16281,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446" s="4" t="s">
         <v>1227</v>
       </c>
@@ -16473,7 +16307,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447" s="4" t="s">
         <v>1230</v>
       </c>
@@ -16499,7 +16333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448" s="4" t="s">
         <v>1233</v>
       </c>
@@ -16525,7 +16359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="15">
       <c r="B449" s="9" t="s">
         <v>55</v>
       </c>
@@ -16546,20 +16380,20 @@
         <v>104</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="18" t="s">
+    <row r="450" spans="1:8" ht="15">
+      <c r="A450" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="B450" s="19" t="s">
+      <c r="B450" s="18" t="s">
         <v>1237</v>
       </c>
-      <c r="D450" s="21"/>
-      <c r="E450" s="22"/>
-      <c r="F450" s="22"/>
-      <c r="G450" s="22"/>
-      <c r="H450" s="22"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D450" s="20"/>
+      <c r="E450" s="21"/>
+      <c r="F450" s="21"/>
+      <c r="G450" s="21"/>
+      <c r="H450" s="21"/>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" s="4" t="s">
         <v>1238</v>
       </c>
@@ -16585,7 +16419,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452" s="13" t="s">
         <v>1241</v>
       </c>
@@ -16611,7 +16445,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453" s="4" t="s">
         <v>1244</v>
       </c>
@@ -16637,7 +16471,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454" s="4" t="s">
         <v>1247</v>
       </c>
@@ -16663,7 +16497,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455" s="4" t="s">
         <v>1249</v>
       </c>
@@ -16689,7 +16523,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456" s="4" t="s">
         <v>1252</v>
       </c>
@@ -16715,7 +16549,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457" s="4" t="s">
         <v>1255</v>
       </c>
@@ -16741,7 +16575,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458" s="4" t="s">
         <v>1258</v>
       </c>
@@ -16767,7 +16601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459" s="4" t="s">
         <v>1260</v>
       </c>
@@ -16793,7 +16627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="4" t="s">
         <v>1263</v>
       </c>
@@ -16819,7 +16653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="4" t="s">
         <v>1266</v>
       </c>
@@ -16845,7 +16679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462" s="4" t="s">
         <v>1268</v>
       </c>
@@ -16871,7 +16705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463" s="4" t="s">
         <v>1271</v>
       </c>
@@ -16897,7 +16731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464" s="4" t="s">
         <v>1274</v>
       </c>
@@ -16923,7 +16757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465" s="4" t="s">
         <v>1277</v>
       </c>
@@ -16949,7 +16783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466" s="4" t="s">
         <v>1279</v>
       </c>
@@ -16975,7 +16809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467" s="4" t="s">
         <v>1282</v>
       </c>
@@ -17001,7 +16835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468" s="4" t="s">
         <v>1284</v>
       </c>
@@ -17027,7 +16861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469" s="4" t="s">
         <v>1286</v>
       </c>
@@ -17053,7 +16887,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470" s="4" t="s">
         <v>1289</v>
       </c>
@@ -17079,7 +16913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471" s="4" t="s">
         <v>1292</v>
       </c>
@@ -17105,7 +16939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472" s="4" t="s">
         <v>1295</v>
       </c>
@@ -17131,7 +16965,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="15">
       <c r="B473" s="9" t="s">
         <v>55</v>
       </c>
@@ -17152,13 +16986,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="474" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A474" s="7"/>
-      <c r="B474" s="49" t="s">
+      <c r="B474" s="42" t="s">
         <v>1298</v>
       </c>
       <c r="C474" s="10"/>
-      <c r="D474" s="29">
+      <c r="D474" s="11">
         <v>357676.99000000005</v>
       </c>
       <c r="E474" s="12">
@@ -17174,21 +17008,21 @@
         <v>234</v>
       </c>
     </row>
-    <row r="475" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="39"/>
+    <row r="475" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A475" s="34"/>
       <c r="B475" s="10"/>
       <c r="C475" s="10"/>
-      <c r="D475" s="29"/>
+      <c r="D475" s="11"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
       <c r="H475" s="12"/>
     </row>
-    <row r="476" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="40" t="s">
+    <row r="476" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A476" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="B476" s="41"/>
+      <c r="B476" s="35"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -17196,9 +17030,8 @@
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
     </row>
-    <row r="477" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="40"/>
-      <c r="B477" s="41"/>
+    <row r="477" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B477" s="35"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -17206,11 +17039,11 @@
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
     </row>
-    <row r="478" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="42" t="s">
+    <row r="478" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A478" s="36" t="s">
         <v>1318</v>
       </c>
-      <c r="B478" s="41"/>
+      <c r="B478" s="35"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -17218,11 +17051,11 @@
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
     </row>
-    <row r="479" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="43" t="s">
+    <row r="479" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A479" s="17" t="s">
         <v>1319</v>
       </c>
-      <c r="B479" s="41"/>
+      <c r="B479" s="35"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -17230,610 +17063,610 @@
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="43"/>
-      <c r="B480" s="44"/>
-      <c r="C480" s="44"/>
-      <c r="D480" s="45"/>
-      <c r="E480" s="45"/>
-      <c r="F480" s="45"/>
-      <c r="G480" s="46"/>
+    <row r="480" spans="1:8" ht="15">
+      <c r="A480" s="17"/>
+      <c r="B480" s="37"/>
+      <c r="C480" s="37"/>
+      <c r="D480" s="38"/>
+      <c r="E480" s="38"/>
+      <c r="F480" s="38"/>
+      <c r="G480" s="39"/>
       <c r="H480" s="4"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="47" t="s">
+    <row r="481" spans="1:8" ht="15">
+      <c r="A481" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B481" s="47"/>
-      <c r="C481" s="47"/>
-      <c r="D481" s="47"/>
-      <c r="E481" s="47"/>
-      <c r="F481" s="47"/>
-      <c r="G481" s="47"/>
-      <c r="H481" s="47"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="47" t="s">
+      <c r="B481" s="40"/>
+      <c r="C481" s="40"/>
+      <c r="D481" s="40"/>
+      <c r="E481" s="40"/>
+      <c r="F481" s="40"/>
+      <c r="G481" s="40"/>
+      <c r="H481" s="40"/>
+    </row>
+    <row r="482" spans="1:8" ht="15">
+      <c r="A482" s="40" t="s">
         <v>1310</v>
       </c>
-      <c r="B482" s="47"/>
-      <c r="C482" s="47"/>
-      <c r="D482" s="47"/>
-      <c r="E482" s="47"/>
-      <c r="F482" s="47"/>
-      <c r="G482" s="47"/>
-      <c r="H482" s="47"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483" s="47" t="s">
+      <c r="B482" s="40"/>
+      <c r="C482" s="40"/>
+      <c r="D482" s="40"/>
+      <c r="E482" s="40"/>
+      <c r="F482" s="40"/>
+      <c r="G482" s="40"/>
+      <c r="H482" s="40"/>
+    </row>
+    <row r="483" spans="1:8" ht="15">
+      <c r="A483" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B483" s="47"/>
-      <c r="C483" s="47"/>
-      <c r="D483" s="47"/>
-      <c r="E483" s="47"/>
-      <c r="F483" s="47"/>
-      <c r="G483" s="47"/>
-      <c r="H483" s="47"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D484" s="21"/>
-      <c r="E484" s="22"/>
-      <c r="F484" s="22"/>
-      <c r="G484" s="22"/>
-      <c r="H484" s="22"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D485" s="21"/>
-      <c r="E485" s="22"/>
-      <c r="F485" s="22"/>
-      <c r="G485" s="22"/>
-      <c r="H485" s="22"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D486" s="21"/>
-      <c r="E486" s="22"/>
-      <c r="F486" s="22"/>
-      <c r="G486" s="22"/>
-      <c r="H486" s="22"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D487" s="21"/>
-      <c r="E487" s="22"/>
-      <c r="F487" s="22"/>
-      <c r="G487" s="22"/>
-      <c r="H487" s="22"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D488" s="21"/>
-      <c r="E488" s="22"/>
-      <c r="F488" s="22"/>
-      <c r="G488" s="22"/>
-      <c r="H488" s="22"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D489" s="21"/>
-      <c r="E489" s="22"/>
-      <c r="F489" s="22"/>
-      <c r="G489" s="22"/>
-      <c r="H489" s="22"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D490" s="21"/>
-      <c r="E490" s="22"/>
-      <c r="F490" s="22"/>
-      <c r="G490" s="22"/>
-      <c r="H490" s="22"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D491" s="21"/>
-      <c r="E491" s="22"/>
-      <c r="F491" s="22"/>
-      <c r="G491" s="22"/>
-      <c r="H491" s="22"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D492" s="21"/>
-      <c r="E492" s="22"/>
-      <c r="F492" s="22"/>
-      <c r="G492" s="22"/>
-      <c r="H492" s="22"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D493" s="21"/>
-      <c r="E493" s="22"/>
-      <c r="F493" s="22"/>
-      <c r="G493" s="22"/>
-      <c r="H493" s="22"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D494" s="21"/>
-      <c r="E494" s="22"/>
-      <c r="F494" s="22"/>
-      <c r="G494" s="22"/>
-      <c r="H494" s="22"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D495" s="21"/>
-      <c r="E495" s="22"/>
-      <c r="F495" s="22"/>
-      <c r="G495" s="22"/>
-      <c r="H495" s="22"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D496" s="21"/>
-      <c r="E496" s="22"/>
-      <c r="F496" s="22"/>
-      <c r="G496" s="22"/>
-      <c r="H496" s="22"/>
-    </row>
-    <row r="497" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D497" s="21"/>
-      <c r="E497" s="22"/>
-      <c r="F497" s="22"/>
-      <c r="G497" s="22"/>
-      <c r="H497" s="22"/>
-    </row>
-    <row r="498" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D498" s="21"/>
-      <c r="E498" s="22"/>
-      <c r="F498" s="22"/>
-      <c r="G498" s="22"/>
-      <c r="H498" s="22"/>
-    </row>
-    <row r="499" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D499" s="21"/>
-      <c r="E499" s="22"/>
-      <c r="F499" s="22"/>
-      <c r="G499" s="22"/>
-      <c r="H499" s="22"/>
-    </row>
-    <row r="500" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D500" s="21"/>
-    </row>
-    <row r="501" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D501" s="21"/>
-    </row>
-    <row r="502" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D502" s="21"/>
-    </row>
-    <row r="503" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D503" s="21"/>
-    </row>
-    <row r="504" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D504" s="21"/>
-    </row>
-    <row r="505" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D505" s="21"/>
-    </row>
-    <row r="506" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D506" s="21"/>
-    </row>
-    <row r="507" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D507" s="21"/>
-    </row>
-    <row r="508" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D508" s="21"/>
-    </row>
-    <row r="509" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D509" s="21"/>
-    </row>
-    <row r="510" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D510" s="21"/>
-    </row>
-    <row r="511" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D511" s="21"/>
-    </row>
-    <row r="512" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D512" s="21"/>
-    </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D513" s="21"/>
-    </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D514" s="21"/>
-    </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D515" s="21"/>
-    </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D516" s="21"/>
-    </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D517" s="21"/>
-    </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D518" s="21"/>
-    </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D519" s="21"/>
-    </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D520" s="21"/>
-    </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D521" s="21"/>
-    </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D522" s="21"/>
-    </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D523" s="21"/>
-    </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D524" s="21"/>
-    </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D525" s="21"/>
-    </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D526" s="21"/>
-    </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D527" s="21"/>
-    </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D528" s="21"/>
-    </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D529" s="21"/>
-    </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D530" s="21"/>
-    </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D531" s="21"/>
-    </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="21"/>
-    </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D533" s="21"/>
-    </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D534" s="21"/>
-    </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D535" s="21"/>
-    </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D536" s="21"/>
-    </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D537" s="21"/>
-    </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D538" s="21"/>
-    </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D539" s="21"/>
-    </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D540" s="21"/>
-    </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D541" s="21"/>
-    </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D542" s="21"/>
-    </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D543" s="21"/>
-    </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D544" s="21"/>
-    </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D545" s="21"/>
-    </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D546" s="21"/>
-    </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D547" s="21"/>
-    </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D548" s="21"/>
-    </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D549" s="21"/>
-    </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D550" s="21"/>
-    </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D551" s="21"/>
-    </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D552" s="21"/>
-    </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D553" s="21"/>
-    </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D554" s="21"/>
-    </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D555" s="21"/>
-    </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D556" s="21"/>
-    </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D557" s="21"/>
-    </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D558" s="21"/>
-    </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D559" s="21"/>
-    </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D560" s="21"/>
-    </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D561" s="21"/>
-    </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D562" s="21"/>
-    </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D563" s="21"/>
-    </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D564" s="21"/>
-    </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D565" s="21"/>
-    </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D566" s="21"/>
-    </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D567" s="21"/>
-    </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D568" s="21"/>
-    </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D569" s="21"/>
-    </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D570" s="21"/>
-    </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D571" s="21"/>
-    </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D572" s="21"/>
-    </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D573" s="21"/>
-    </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D574" s="21"/>
-    </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D575" s="21"/>
-    </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D576" s="21"/>
-    </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D577" s="21"/>
-    </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D578" s="21"/>
-    </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D579" s="21"/>
-    </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D580" s="21"/>
-    </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D581" s="21"/>
-    </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D582" s="21"/>
-    </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D583" s="21"/>
-    </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D584" s="21"/>
-    </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D585" s="21"/>
-    </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D586" s="21"/>
-    </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D587" s="21"/>
-    </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D588" s="21"/>
-    </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D589" s="21"/>
-    </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D590" s="21"/>
-    </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D591" s="21"/>
-    </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D592" s="21"/>
-    </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D593" s="21"/>
-    </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D594" s="21"/>
-    </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D595" s="21"/>
-    </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D596" s="21"/>
-    </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D597" s="21"/>
-    </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D598" s="21"/>
-    </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D599" s="21"/>
-    </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D600" s="21"/>
-    </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D601" s="21"/>
-    </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D602" s="21"/>
-    </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D603" s="21"/>
-    </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D604" s="21"/>
-    </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D605" s="21"/>
-    </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D606" s="21"/>
-    </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D607" s="21"/>
-    </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D608" s="21"/>
-    </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D609" s="21"/>
-    </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D610" s="21"/>
-    </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D611" s="21"/>
-    </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D612" s="21"/>
-    </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D613" s="21"/>
-    </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D614" s="21"/>
-    </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D615" s="21"/>
-    </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D616" s="21"/>
-    </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D617" s="21"/>
-    </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D618" s="21"/>
-    </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D619" s="21"/>
-    </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D620" s="21"/>
-    </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D621" s="21"/>
-    </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D622" s="21"/>
-    </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D623" s="21"/>
-    </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D624" s="21"/>
-    </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D625" s="21"/>
-    </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D626" s="21"/>
-    </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D627" s="21"/>
-    </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D628" s="21"/>
-    </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D629" s="21"/>
-    </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D630" s="21"/>
-    </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D631" s="21"/>
-    </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D632" s="21"/>
-    </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D633" s="21"/>
-    </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D634" s="21"/>
-    </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D635" s="21"/>
-    </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D636" s="21"/>
-    </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D637" s="21"/>
-    </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D638" s="21"/>
-    </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D639" s="21"/>
-    </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D640" s="21"/>
-    </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D641" s="21"/>
-    </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D642" s="21"/>
-    </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D643" s="21"/>
-    </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D644" s="21"/>
-    </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D645" s="21"/>
-    </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D646" s="21"/>
-    </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D647" s="21"/>
-    </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D648" s="21"/>
+      <c r="B483" s="40"/>
+      <c r="C483" s="40"/>
+      <c r="D483" s="40"/>
+      <c r="E483" s="40"/>
+      <c r="F483" s="40"/>
+      <c r="G483" s="40"/>
+      <c r="H483" s="40"/>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="D484" s="20"/>
+      <c r="E484" s="21"/>
+      <c r="F484" s="21"/>
+      <c r="G484" s="21"/>
+      <c r="H484" s="21"/>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="D485" s="20"/>
+      <c r="E485" s="21"/>
+      <c r="F485" s="21"/>
+      <c r="G485" s="21"/>
+      <c r="H485" s="21"/>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="D486" s="20"/>
+      <c r="E486" s="21"/>
+      <c r="F486" s="21"/>
+      <c r="G486" s="21"/>
+      <c r="H486" s="21"/>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="D487" s="20"/>
+      <c r="E487" s="21"/>
+      <c r="F487" s="21"/>
+      <c r="G487" s="21"/>
+      <c r="H487" s="21"/>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="D488" s="20"/>
+      <c r="E488" s="21"/>
+      <c r="F488" s="21"/>
+      <c r="G488" s="21"/>
+      <c r="H488" s="21"/>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="D489" s="20"/>
+      <c r="E489" s="21"/>
+      <c r="F489" s="21"/>
+      <c r="G489" s="21"/>
+      <c r="H489" s="21"/>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="D490" s="20"/>
+      <c r="E490" s="21"/>
+      <c r="F490" s="21"/>
+      <c r="G490" s="21"/>
+      <c r="H490" s="21"/>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="D491" s="20"/>
+      <c r="E491" s="21"/>
+      <c r="F491" s="21"/>
+      <c r="G491" s="21"/>
+      <c r="H491" s="21"/>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="D492" s="20"/>
+      <c r="E492" s="21"/>
+      <c r="F492" s="21"/>
+      <c r="G492" s="21"/>
+      <c r="H492" s="21"/>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="D493" s="20"/>
+      <c r="E493" s="21"/>
+      <c r="F493" s="21"/>
+      <c r="G493" s="21"/>
+      <c r="H493" s="21"/>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="D494" s="20"/>
+      <c r="E494" s="21"/>
+      <c r="F494" s="21"/>
+      <c r="G494" s="21"/>
+      <c r="H494" s="21"/>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="D495" s="20"/>
+      <c r="E495" s="21"/>
+      <c r="F495" s="21"/>
+      <c r="G495" s="21"/>
+      <c r="H495" s="21"/>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="D496" s="20"/>
+      <c r="E496" s="21"/>
+      <c r="F496" s="21"/>
+      <c r="G496" s="21"/>
+      <c r="H496" s="21"/>
+    </row>
+    <row r="497" spans="4:8">
+      <c r="D497" s="20"/>
+      <c r="E497" s="21"/>
+      <c r="F497" s="21"/>
+      <c r="G497" s="21"/>
+      <c r="H497" s="21"/>
+    </row>
+    <row r="498" spans="4:8">
+      <c r="D498" s="20"/>
+      <c r="E498" s="21"/>
+      <c r="F498" s="21"/>
+      <c r="G498" s="21"/>
+      <c r="H498" s="21"/>
+    </row>
+    <row r="499" spans="4:8">
+      <c r="D499" s="20"/>
+      <c r="E499" s="21"/>
+      <c r="F499" s="21"/>
+      <c r="G499" s="21"/>
+      <c r="H499" s="21"/>
+    </row>
+    <row r="500" spans="4:8">
+      <c r="D500" s="20"/>
+    </row>
+    <row r="501" spans="4:8">
+      <c r="D501" s="20"/>
+    </row>
+    <row r="502" spans="4:8">
+      <c r="D502" s="20"/>
+    </row>
+    <row r="503" spans="4:8">
+      <c r="D503" s="20"/>
+    </row>
+    <row r="504" spans="4:8">
+      <c r="D504" s="20"/>
+    </row>
+    <row r="505" spans="4:8">
+      <c r="D505" s="20"/>
+    </row>
+    <row r="506" spans="4:8">
+      <c r="D506" s="20"/>
+    </row>
+    <row r="507" spans="4:8">
+      <c r="D507" s="20"/>
+    </row>
+    <row r="508" spans="4:8">
+      <c r="D508" s="20"/>
+    </row>
+    <row r="509" spans="4:8">
+      <c r="D509" s="20"/>
+    </row>
+    <row r="510" spans="4:8">
+      <c r="D510" s="20"/>
+    </row>
+    <row r="511" spans="4:8">
+      <c r="D511" s="20"/>
+    </row>
+    <row r="512" spans="4:8">
+      <c r="D512" s="20"/>
+    </row>
+    <row r="513" spans="4:4">
+      <c r="D513" s="20"/>
+    </row>
+    <row r="514" spans="4:4">
+      <c r="D514" s="20"/>
+    </row>
+    <row r="515" spans="4:4">
+      <c r="D515" s="20"/>
+    </row>
+    <row r="516" spans="4:4">
+      <c r="D516" s="20"/>
+    </row>
+    <row r="517" spans="4:4">
+      <c r="D517" s="20"/>
+    </row>
+    <row r="518" spans="4:4">
+      <c r="D518" s="20"/>
+    </row>
+    <row r="519" spans="4:4">
+      <c r="D519" s="20"/>
+    </row>
+    <row r="520" spans="4:4">
+      <c r="D520" s="20"/>
+    </row>
+    <row r="521" spans="4:4">
+      <c r="D521" s="20"/>
+    </row>
+    <row r="522" spans="4:4">
+      <c r="D522" s="20"/>
+    </row>
+    <row r="523" spans="4:4">
+      <c r="D523" s="20"/>
+    </row>
+    <row r="524" spans="4:4">
+      <c r="D524" s="20"/>
+    </row>
+    <row r="525" spans="4:4">
+      <c r="D525" s="20"/>
+    </row>
+    <row r="526" spans="4:4">
+      <c r="D526" s="20"/>
+    </row>
+    <row r="527" spans="4:4">
+      <c r="D527" s="20"/>
+    </row>
+    <row r="528" spans="4:4">
+      <c r="D528" s="20"/>
+    </row>
+    <row r="529" spans="4:4">
+      <c r="D529" s="20"/>
+    </row>
+    <row r="530" spans="4:4">
+      <c r="D530" s="20"/>
+    </row>
+    <row r="531" spans="4:4">
+      <c r="D531" s="20"/>
+    </row>
+    <row r="532" spans="4:4">
+      <c r="D532" s="20"/>
+    </row>
+    <row r="533" spans="4:4">
+      <c r="D533" s="20"/>
+    </row>
+    <row r="534" spans="4:4">
+      <c r="D534" s="20"/>
+    </row>
+    <row r="535" spans="4:4">
+      <c r="D535" s="20"/>
+    </row>
+    <row r="536" spans="4:4">
+      <c r="D536" s="20"/>
+    </row>
+    <row r="537" spans="4:4">
+      <c r="D537" s="20"/>
+    </row>
+    <row r="538" spans="4:4">
+      <c r="D538" s="20"/>
+    </row>
+    <row r="539" spans="4:4">
+      <c r="D539" s="20"/>
+    </row>
+    <row r="540" spans="4:4">
+      <c r="D540" s="20"/>
+    </row>
+    <row r="541" spans="4:4">
+      <c r="D541" s="20"/>
+    </row>
+    <row r="542" spans="4:4">
+      <c r="D542" s="20"/>
+    </row>
+    <row r="543" spans="4:4">
+      <c r="D543" s="20"/>
+    </row>
+    <row r="544" spans="4:4">
+      <c r="D544" s="20"/>
+    </row>
+    <row r="545" spans="4:4">
+      <c r="D545" s="20"/>
+    </row>
+    <row r="546" spans="4:4">
+      <c r="D546" s="20"/>
+    </row>
+    <row r="547" spans="4:4">
+      <c r="D547" s="20"/>
+    </row>
+    <row r="548" spans="4:4">
+      <c r="D548" s="20"/>
+    </row>
+    <row r="549" spans="4:4">
+      <c r="D549" s="20"/>
+    </row>
+    <row r="550" spans="4:4">
+      <c r="D550" s="20"/>
+    </row>
+    <row r="551" spans="4:4">
+      <c r="D551" s="20"/>
+    </row>
+    <row r="552" spans="4:4">
+      <c r="D552" s="20"/>
+    </row>
+    <row r="553" spans="4:4">
+      <c r="D553" s="20"/>
+    </row>
+    <row r="554" spans="4:4">
+      <c r="D554" s="20"/>
+    </row>
+    <row r="555" spans="4:4">
+      <c r="D555" s="20"/>
+    </row>
+    <row r="556" spans="4:4">
+      <c r="D556" s="20"/>
+    </row>
+    <row r="557" spans="4:4">
+      <c r="D557" s="20"/>
+    </row>
+    <row r="558" spans="4:4">
+      <c r="D558" s="20"/>
+    </row>
+    <row r="559" spans="4:4">
+      <c r="D559" s="20"/>
+    </row>
+    <row r="560" spans="4:4">
+      <c r="D560" s="20"/>
+    </row>
+    <row r="561" spans="4:4">
+      <c r="D561" s="20"/>
+    </row>
+    <row r="562" spans="4:4">
+      <c r="D562" s="20"/>
+    </row>
+    <row r="563" spans="4:4">
+      <c r="D563" s="20"/>
+    </row>
+    <row r="564" spans="4:4">
+      <c r="D564" s="20"/>
+    </row>
+    <row r="565" spans="4:4">
+      <c r="D565" s="20"/>
+    </row>
+    <row r="566" spans="4:4">
+      <c r="D566" s="20"/>
+    </row>
+    <row r="567" spans="4:4">
+      <c r="D567" s="20"/>
+    </row>
+    <row r="568" spans="4:4">
+      <c r="D568" s="20"/>
+    </row>
+    <row r="569" spans="4:4">
+      <c r="D569" s="20"/>
+    </row>
+    <row r="570" spans="4:4">
+      <c r="D570" s="20"/>
+    </row>
+    <row r="571" spans="4:4">
+      <c r="D571" s="20"/>
+    </row>
+    <row r="572" spans="4:4">
+      <c r="D572" s="20"/>
+    </row>
+    <row r="573" spans="4:4">
+      <c r="D573" s="20"/>
+    </row>
+    <row r="574" spans="4:4">
+      <c r="D574" s="20"/>
+    </row>
+    <row r="575" spans="4:4">
+      <c r="D575" s="20"/>
+    </row>
+    <row r="576" spans="4:4">
+      <c r="D576" s="20"/>
+    </row>
+    <row r="577" spans="4:4">
+      <c r="D577" s="20"/>
+    </row>
+    <row r="578" spans="4:4">
+      <c r="D578" s="20"/>
+    </row>
+    <row r="579" spans="4:4">
+      <c r="D579" s="20"/>
+    </row>
+    <row r="580" spans="4:4">
+      <c r="D580" s="20"/>
+    </row>
+    <row r="581" spans="4:4">
+      <c r="D581" s="20"/>
+    </row>
+    <row r="582" spans="4:4">
+      <c r="D582" s="20"/>
+    </row>
+    <row r="583" spans="4:4">
+      <c r="D583" s="20"/>
+    </row>
+    <row r="584" spans="4:4">
+      <c r="D584" s="20"/>
+    </row>
+    <row r="585" spans="4:4">
+      <c r="D585" s="20"/>
+    </row>
+    <row r="586" spans="4:4">
+      <c r="D586" s="20"/>
+    </row>
+    <row r="587" spans="4:4">
+      <c r="D587" s="20"/>
+    </row>
+    <row r="588" spans="4:4">
+      <c r="D588" s="20"/>
+    </row>
+    <row r="589" spans="4:4">
+      <c r="D589" s="20"/>
+    </row>
+    <row r="590" spans="4:4">
+      <c r="D590" s="20"/>
+    </row>
+    <row r="591" spans="4:4">
+      <c r="D591" s="20"/>
+    </row>
+    <row r="592" spans="4:4">
+      <c r="D592" s="20"/>
+    </row>
+    <row r="593" spans="4:4">
+      <c r="D593" s="20"/>
+    </row>
+    <row r="594" spans="4:4">
+      <c r="D594" s="20"/>
+    </row>
+    <row r="595" spans="4:4">
+      <c r="D595" s="20"/>
+    </row>
+    <row r="596" spans="4:4">
+      <c r="D596" s="20"/>
+    </row>
+    <row r="597" spans="4:4">
+      <c r="D597" s="20"/>
+    </row>
+    <row r="598" spans="4:4">
+      <c r="D598" s="20"/>
+    </row>
+    <row r="599" spans="4:4">
+      <c r="D599" s="20"/>
+    </row>
+    <row r="600" spans="4:4">
+      <c r="D600" s="20"/>
+    </row>
+    <row r="601" spans="4:4">
+      <c r="D601" s="20"/>
+    </row>
+    <row r="602" spans="4:4">
+      <c r="D602" s="20"/>
+    </row>
+    <row r="603" spans="4:4">
+      <c r="D603" s="20"/>
+    </row>
+    <row r="604" spans="4:4">
+      <c r="D604" s="20"/>
+    </row>
+    <row r="605" spans="4:4">
+      <c r="D605" s="20"/>
+    </row>
+    <row r="606" spans="4:4">
+      <c r="D606" s="20"/>
+    </row>
+    <row r="607" spans="4:4">
+      <c r="D607" s="20"/>
+    </row>
+    <row r="608" spans="4:4">
+      <c r="D608" s="20"/>
+    </row>
+    <row r="609" spans="4:4">
+      <c r="D609" s="20"/>
+    </row>
+    <row r="610" spans="4:4">
+      <c r="D610" s="20"/>
+    </row>
+    <row r="611" spans="4:4">
+      <c r="D611" s="20"/>
+    </row>
+    <row r="612" spans="4:4">
+      <c r="D612" s="20"/>
+    </row>
+    <row r="613" spans="4:4">
+      <c r="D613" s="20"/>
+    </row>
+    <row r="614" spans="4:4">
+      <c r="D614" s="20"/>
+    </row>
+    <row r="615" spans="4:4">
+      <c r="D615" s="20"/>
+    </row>
+    <row r="616" spans="4:4">
+      <c r="D616" s="20"/>
+    </row>
+    <row r="617" spans="4:4">
+      <c r="D617" s="20"/>
+    </row>
+    <row r="618" spans="4:4">
+      <c r="D618" s="20"/>
+    </row>
+    <row r="619" spans="4:4">
+      <c r="D619" s="20"/>
+    </row>
+    <row r="620" spans="4:4">
+      <c r="D620" s="20"/>
+    </row>
+    <row r="621" spans="4:4">
+      <c r="D621" s="20"/>
+    </row>
+    <row r="622" spans="4:4">
+      <c r="D622" s="20"/>
+    </row>
+    <row r="623" spans="4:4">
+      <c r="D623" s="20"/>
+    </row>
+    <row r="624" spans="4:4">
+      <c r="D624" s="20"/>
+    </row>
+    <row r="625" spans="4:4">
+      <c r="D625" s="20"/>
+    </row>
+    <row r="626" spans="4:4">
+      <c r="D626" s="20"/>
+    </row>
+    <row r="627" spans="4:4">
+      <c r="D627" s="20"/>
+    </row>
+    <row r="628" spans="4:4">
+      <c r="D628" s="20"/>
+    </row>
+    <row r="629" spans="4:4">
+      <c r="D629" s="20"/>
+    </row>
+    <row r="630" spans="4:4">
+      <c r="D630" s="20"/>
+    </row>
+    <row r="631" spans="4:4">
+      <c r="D631" s="20"/>
+    </row>
+    <row r="632" spans="4:4">
+      <c r="D632" s="20"/>
+    </row>
+    <row r="633" spans="4:4">
+      <c r="D633" s="20"/>
+    </row>
+    <row r="634" spans="4:4">
+      <c r="D634" s="20"/>
+    </row>
+    <row r="635" spans="4:4">
+      <c r="D635" s="20"/>
+    </row>
+    <row r="636" spans="4:4">
+      <c r="D636" s="20"/>
+    </row>
+    <row r="637" spans="4:4">
+      <c r="D637" s="20"/>
+    </row>
+    <row r="638" spans="4:4">
+      <c r="D638" s="20"/>
+    </row>
+    <row r="639" spans="4:4">
+      <c r="D639" s="20"/>
+    </row>
+    <row r="640" spans="4:4">
+      <c r="D640" s="20"/>
+    </row>
+    <row r="641" spans="4:4">
+      <c r="D641" s="20"/>
+    </row>
+    <row r="642" spans="4:4">
+      <c r="D642" s="20"/>
+    </row>
+    <row r="643" spans="4:4">
+      <c r="D643" s="20"/>
+    </row>
+    <row r="644" spans="4:4">
+      <c r="D644" s="20"/>
+    </row>
+    <row r="645" spans="4:4">
+      <c r="D645" s="20"/>
+    </row>
+    <row r="646" spans="4:4">
+      <c r="D646" s="20"/>
+    </row>
+    <row r="647" spans="4:4">
+      <c r="D647" s="20"/>
+    </row>
+    <row r="648" spans="4:4">
+      <c r="D648" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
